--- a/JS-DataStructrues.xlsx
+++ b/JS-DataStructrues.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
   <si>
     <t>push</t>
     <phoneticPr fontId="1"/>
@@ -117,12 +117,56 @@
     <t>要插入的新元素节点</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>水果</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>蔬菜</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>集合结构示意图</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Set</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CoderMonkey</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>码路工人</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>交集 Intersection</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>子集 Subset</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>动</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>物</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>食肉动物</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,6 +218,12 @@
       <name val="Microsoft YaHei"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -189,7 +239,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -277,13 +327,93 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -328,6 +458,36 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9841,55 +10001,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>62</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>62</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>154</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="173" name="直線コネクタ 172"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14944725" y="27965400"/>
-          <a:ext cx="0" cy="4448175"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>133349</xdr:colOff>
       <xdr:row>143</xdr:row>
@@ -10126,6 +10237,1857 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="楕円 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1647825" y="35794950"/>
+          <a:ext cx="2809875" cy="2809875"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>         Fruits</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="172" name="フローチャート: 代替処理 171"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2466975" y="36556950"/>
+          <a:ext cx="666750" cy="342901"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>apple</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>200026</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="195" name="フローチャート: 代替処理 194"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2457450" y="36966525"/>
+          <a:ext cx="666750" cy="342901"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>banana</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>200026</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="196" name="フローチャート: 代替処理 195"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2466975" y="37385625"/>
+          <a:ext cx="666750" cy="342901"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>cherry</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="200" name="楕円 199"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3476625" y="35814000"/>
+          <a:ext cx="2809875" cy="2809875"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>               </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Vegetables</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="201" name="フローチャート: 代替処理 200"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4695825" y="37233225"/>
+          <a:ext cx="704850" cy="342901"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>potato</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>200026</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="202" name="フローチャート: 代替処理 201"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4695824" y="36756975"/>
+          <a:ext cx="695325" cy="342901"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>cabbage</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>200026</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="203" name="フローチャート: 代替処理 202"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12744450" y="36756975"/>
+          <a:ext cx="666750" cy="342901"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>tomato</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>147948</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>6174</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>124376</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>172254</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="円弧 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="2567208">
+          <a:off x="8958573" y="36277374"/>
+          <a:ext cx="2833928" cy="3099780"/>
+        </a:xfrm>
+        <a:prstGeom prst="arc">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 16178484"/>
+            <a:gd name="adj2" fmla="val 126839"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="199" name="フローチャート: 代替処理 198"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3648075" y="37023675"/>
+          <a:ext cx="666750" cy="342901"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>tomato</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>186800</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>144828</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>168941</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>41701</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="221" name="円弧 220"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="2567208">
+          <a:off x="1615550" y="35787378"/>
+          <a:ext cx="2839641" cy="2830573"/>
+        </a:xfrm>
+        <a:prstGeom prst="arc">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 16095745"/>
+            <a:gd name="adj2" fmla="val 417025"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="173" name="直線コネクタ 172"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13173075" y="39452550"/>
+          <a:ext cx="0" cy="4448175"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="225" name="直線コネクタ 224"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10915650" y="41119425"/>
+          <a:ext cx="5057775" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="33" name="グループ化 32"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2057401" y="43776901"/>
+          <a:ext cx="1314450" cy="1314450"/>
+          <a:chOff x="4495801" y="40995601"/>
+          <a:chExt cx="1314450" cy="1314450"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="223" name="楕円 222"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4495801" y="40995601"/>
+            <a:ext cx="1314450" cy="1314450"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Carnivores</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="224" name="フローチャート: 代替処理 223"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4829175" y="41443275"/>
+            <a:ext cx="666750" cy="342901"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartAlternateProcess">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>lion</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="226" name="フローチャート: 代替処理 225"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4829175" y="41852850"/>
+            <a:ext cx="666750" cy="342901"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartAlternateProcess">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>tiger</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="32" name="グループ化 31"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1314450" y="40538400"/>
+          <a:ext cx="2809875" cy="2809875"/>
+          <a:chOff x="1647825" y="41033700"/>
+          <a:chExt cx="2809875" cy="2809875"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="210" name="楕円 209"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1647825" y="41033700"/>
+            <a:ext cx="2809875" cy="2809875"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>            Animals</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="211" name="フローチャート: 代替処理 210"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2343150" y="42033825"/>
+            <a:ext cx="685800" cy="342901"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartAlternateProcess">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>deer</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="212" name="フローチャート: 代替処理 211"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2333625" y="42443400"/>
+            <a:ext cx="685800" cy="342901"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartAlternateProcess">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>dog</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="213" name="フローチャート: 代替処理 212"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3209925" y="42443400"/>
+            <a:ext cx="685800" cy="342901"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartAlternateProcess">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>tiger</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="222" name="フローチャート: 代替処理 221"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3209925" y="42033825"/>
+            <a:ext cx="685800" cy="342901"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartAlternateProcess">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>lion</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="227" name="フローチャート: 代替処理 226"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2333625" y="42852975"/>
+            <a:ext cx="685800" cy="342901"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartAlternateProcess">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>donkey</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="228" name="フローチャート: 代替処理 227"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3209925" y="42852975"/>
+            <a:ext cx="685800" cy="342901"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartAlternateProcess">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>monkey</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>233088</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>29744</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>131445</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>37236</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="233" name="フローチャート: 代替処理 232"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15711213" y="40282394"/>
+          <a:ext cx="850857" cy="426592"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>tiger</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>233088</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>148855</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>131445</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>156347</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="234" name="フローチャート: 代替処理 233"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15711213" y="39772855"/>
+          <a:ext cx="850857" cy="426592"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>lion</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>95256</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>28581</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="49" name="グループ化 48"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5600700" y="40976556"/>
+          <a:ext cx="3486150" cy="3495675"/>
+          <a:chOff x="5381625" y="41186106"/>
+          <a:chExt cx="3486150" cy="3495675"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="230" name="楕円 229"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5381625" y="41186106"/>
+            <a:ext cx="3486150" cy="3495675"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>            Animals</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="231" name="フローチャート: 代替処理 230"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6244299" y="42430329"/>
+            <a:ext cx="850857" cy="426592"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartAlternateProcess">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>deer</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="232" name="フローチャート: 代替処理 231"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6232482" y="42939868"/>
+            <a:ext cx="850857" cy="426592"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartAlternateProcess">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>dog</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="235" name="フローチャート: 代替処理 234"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6232482" y="43449407"/>
+            <a:ext cx="850857" cy="426592"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartAlternateProcess">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>donkey</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="236" name="フローチャート: 代替処理 235"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7319688" y="43449407"/>
+            <a:ext cx="850857" cy="426592"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartAlternateProcess">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>monkey</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="237" name="グループ化 236"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="7162801" y="42014776"/>
+            <a:ext cx="1314450" cy="1314450"/>
+            <a:chOff x="4495801" y="40995601"/>
+            <a:chExt cx="1314450" cy="1314450"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="238" name="楕円 237"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4495801" y="40995601"/>
+              <a:ext cx="1314450" cy="1314450"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:rPr>
+                <a:t>Carnivores</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="239" name="フローチャート: 代替処理 238"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4829175" y="41443275"/>
+              <a:ext cx="666750" cy="342901"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartAlternateProcess">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+                <a:t>lion</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="240" name="フローチャート: 代替処理 239"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4829175" y="41852850"/>
+              <a:ext cx="666750" cy="342901"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartAlternateProcess">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+                <a:t>tiger</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="右中かっこ 49"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4105275" y="40547925"/>
+          <a:ext cx="819150" cy="4591050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -10394,10 +12356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E4:BG164"/>
+  <dimension ref="D4:BG217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="AN143" sqref="AN143"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="BJ210" sqref="BJ210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
@@ -12338,10 +14300,1806 @@
         <v>21</v>
       </c>
     </row>
-    <row r="164" spans="17:17" x14ac:dyDescent="0.4">
+    <row r="164" spans="4:32" x14ac:dyDescent="0.4">
       <c r="Q164" s="1" t="s">
         <v>22</v>
       </c>
+    </row>
+    <row r="166" spans="4:32" x14ac:dyDescent="0.4">
+      <c r="D166" s="16"/>
+      <c r="E166" s="17"/>
+      <c r="F166" s="17"/>
+      <c r="G166" s="17"/>
+      <c r="H166" s="17"/>
+      <c r="I166" s="17"/>
+      <c r="J166" s="17"/>
+      <c r="K166" s="17"/>
+      <c r="L166" s="17"/>
+      <c r="M166" s="17"/>
+      <c r="N166" s="17"/>
+      <c r="O166" s="17"/>
+      <c r="P166" s="17"/>
+      <c r="Q166" s="17"/>
+      <c r="R166" s="17"/>
+      <c r="S166" s="17"/>
+      <c r="T166" s="17"/>
+      <c r="U166" s="17"/>
+      <c r="V166" s="17"/>
+      <c r="W166" s="17"/>
+      <c r="X166" s="17"/>
+      <c r="Y166" s="17"/>
+      <c r="Z166" s="17"/>
+      <c r="AA166" s="17"/>
+      <c r="AB166" s="17"/>
+      <c r="AC166" s="17"/>
+      <c r="AD166" s="17"/>
+      <c r="AE166" s="17"/>
+      <c r="AF166" s="18"/>
+    </row>
+    <row r="167" spans="4:32" x14ac:dyDescent="0.4">
+      <c r="D167" s="19"/>
+      <c r="E167" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F167" s="6"/>
+      <c r="G167" s="6"/>
+      <c r="H167" s="6"/>
+      <c r="I167" s="6"/>
+      <c r="J167" s="6"/>
+      <c r="K167" s="6"/>
+      <c r="L167" s="6"/>
+      <c r="M167" s="6"/>
+      <c r="N167" s="6"/>
+      <c r="O167" s="6"/>
+      <c r="P167" s="6"/>
+      <c r="Q167" s="6"/>
+      <c r="R167" s="6"/>
+      <c r="S167" s="6"/>
+      <c r="T167" s="6"/>
+      <c r="U167" s="6"/>
+      <c r="V167" s="6"/>
+      <c r="W167" s="6"/>
+      <c r="X167" s="6"/>
+      <c r="Y167" s="6"/>
+      <c r="Z167" s="6"/>
+      <c r="AA167" s="6"/>
+      <c r="AB167" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC167" s="6"/>
+      <c r="AD167" s="6"/>
+      <c r="AE167" s="6"/>
+      <c r="AF167" s="20"/>
+    </row>
+    <row r="168" spans="4:32" x14ac:dyDescent="0.4">
+      <c r="D168" s="19"/>
+      <c r="E168" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F168" s="6"/>
+      <c r="G168" s="6"/>
+      <c r="H168" s="6"/>
+      <c r="I168" s="6"/>
+      <c r="J168" s="6"/>
+      <c r="K168" s="6"/>
+      <c r="L168" s="6"/>
+      <c r="M168" s="6"/>
+      <c r="N168" s="6"/>
+      <c r="O168" s="6"/>
+      <c r="P168" s="6"/>
+      <c r="Q168" s="6"/>
+      <c r="R168" s="6"/>
+      <c r="S168" s="6"/>
+      <c r="T168" s="6"/>
+      <c r="U168" s="6"/>
+      <c r="V168" s="6"/>
+      <c r="W168" s="6"/>
+      <c r="X168" s="6"/>
+      <c r="Y168" s="6"/>
+      <c r="Z168" s="6"/>
+      <c r="AA168" s="6"/>
+      <c r="AB168" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC168" s="6"/>
+      <c r="AD168" s="6"/>
+      <c r="AE168" s="6"/>
+      <c r="AF168" s="20"/>
+    </row>
+    <row r="169" spans="4:32" x14ac:dyDescent="0.4">
+      <c r="D169" s="19"/>
+      <c r="E169" s="6"/>
+      <c r="F169" s="6"/>
+      <c r="G169" s="6"/>
+      <c r="H169" s="6"/>
+      <c r="I169" s="6"/>
+      <c r="J169" s="6"/>
+      <c r="K169" s="6"/>
+      <c r="L169" s="6"/>
+      <c r="M169" s="6"/>
+      <c r="N169" s="6"/>
+      <c r="O169" s="6"/>
+      <c r="P169" s="6"/>
+      <c r="Q169" s="6"/>
+      <c r="R169" s="6"/>
+      <c r="S169" s="6"/>
+      <c r="T169" s="6"/>
+      <c r="U169" s="6"/>
+      <c r="V169" s="6"/>
+      <c r="W169" s="6"/>
+      <c r="X169" s="6"/>
+      <c r="Y169" s="6"/>
+      <c r="Z169" s="6"/>
+      <c r="AA169" s="6"/>
+      <c r="AB169" s="6"/>
+      <c r="AC169" s="6"/>
+      <c r="AD169" s="6"/>
+      <c r="AE169" s="6"/>
+      <c r="AF169" s="20"/>
+    </row>
+    <row r="170" spans="4:32" x14ac:dyDescent="0.4">
+      <c r="D170" s="19"/>
+      <c r="E170" s="6"/>
+      <c r="F170" s="6"/>
+      <c r="G170" s="6"/>
+      <c r="H170" s="6"/>
+      <c r="I170" s="6"/>
+      <c r="J170" s="6"/>
+      <c r="K170" s="6"/>
+      <c r="L170" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M170" s="6"/>
+      <c r="N170" s="6"/>
+      <c r="O170" s="6"/>
+      <c r="P170" s="6"/>
+      <c r="Q170" s="6"/>
+      <c r="R170" s="6"/>
+      <c r="S170" s="6"/>
+      <c r="T170" s="6"/>
+      <c r="U170" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="V170" s="6"/>
+      <c r="W170" s="6"/>
+      <c r="X170" s="6"/>
+      <c r="Y170" s="6"/>
+      <c r="Z170" s="6"/>
+      <c r="AA170" s="6"/>
+      <c r="AB170" s="6"/>
+      <c r="AC170" s="6"/>
+      <c r="AD170" s="6"/>
+      <c r="AE170" s="6"/>
+      <c r="AF170" s="20"/>
+    </row>
+    <row r="171" spans="4:32" x14ac:dyDescent="0.4">
+      <c r="D171" s="19"/>
+      <c r="E171" s="6"/>
+      <c r="F171" s="6"/>
+      <c r="G171" s="6"/>
+      <c r="H171" s="6"/>
+      <c r="I171" s="6"/>
+      <c r="J171" s="6"/>
+      <c r="K171" s="6"/>
+      <c r="L171" s="6"/>
+      <c r="M171" s="6"/>
+      <c r="N171" s="6"/>
+      <c r="O171" s="6"/>
+      <c r="P171" s="6"/>
+      <c r="Q171" s="6"/>
+      <c r="R171" s="6"/>
+      <c r="S171" s="6"/>
+      <c r="T171" s="6"/>
+      <c r="U171" s="6"/>
+      <c r="V171" s="6"/>
+      <c r="W171" s="6"/>
+      <c r="X171" s="6"/>
+      <c r="Y171" s="6"/>
+      <c r="Z171" s="6"/>
+      <c r="AA171" s="6"/>
+      <c r="AB171" s="6"/>
+      <c r="AC171" s="6"/>
+      <c r="AD171" s="6"/>
+      <c r="AE171" s="6"/>
+      <c r="AF171" s="20"/>
+    </row>
+    <row r="172" spans="4:32" x14ac:dyDescent="0.4">
+      <c r="D172" s="19"/>
+      <c r="E172" s="6"/>
+      <c r="F172" s="6"/>
+      <c r="G172" s="6"/>
+      <c r="H172" s="6"/>
+      <c r="I172" s="6"/>
+      <c r="J172" s="6"/>
+      <c r="K172" s="6"/>
+      <c r="L172" s="6"/>
+      <c r="M172" s="6"/>
+      <c r="N172" s="6"/>
+      <c r="O172" s="6"/>
+      <c r="P172" s="6"/>
+      <c r="Q172" s="6"/>
+      <c r="R172" s="6"/>
+      <c r="S172" s="6"/>
+      <c r="T172" s="6"/>
+      <c r="U172" s="6"/>
+      <c r="V172" s="6"/>
+      <c r="W172" s="6"/>
+      <c r="X172" s="6"/>
+      <c r="Y172" s="6"/>
+      <c r="Z172" s="6"/>
+      <c r="AA172" s="6"/>
+      <c r="AB172" s="6"/>
+      <c r="AC172" s="6"/>
+      <c r="AD172" s="6"/>
+      <c r="AE172" s="6"/>
+      <c r="AF172" s="20"/>
+    </row>
+    <row r="173" spans="4:32" x14ac:dyDescent="0.4">
+      <c r="D173" s="19"/>
+      <c r="E173" s="6"/>
+      <c r="F173" s="6"/>
+      <c r="G173" s="6"/>
+      <c r="H173" s="6"/>
+      <c r="I173" s="6"/>
+      <c r="J173" s="6"/>
+      <c r="K173" s="6"/>
+      <c r="L173" s="6"/>
+      <c r="M173" s="6"/>
+      <c r="N173" s="6"/>
+      <c r="O173" s="6"/>
+      <c r="P173" s="6"/>
+      <c r="Q173" s="6"/>
+      <c r="R173" s="6"/>
+      <c r="S173" s="6"/>
+      <c r="T173" s="6"/>
+      <c r="U173" s="6"/>
+      <c r="V173" s="6"/>
+      <c r="W173" s="6"/>
+      <c r="X173" s="6"/>
+      <c r="Y173" s="6"/>
+      <c r="Z173" s="6"/>
+      <c r="AA173" s="6"/>
+      <c r="AB173" s="6"/>
+      <c r="AC173" s="6"/>
+      <c r="AD173" s="6"/>
+      <c r="AE173" s="6"/>
+      <c r="AF173" s="20"/>
+    </row>
+    <row r="174" spans="4:32" x14ac:dyDescent="0.4">
+      <c r="D174" s="19"/>
+      <c r="E174" s="6"/>
+      <c r="F174" s="6"/>
+      <c r="G174" s="6"/>
+      <c r="H174" s="6"/>
+      <c r="I174" s="6"/>
+      <c r="J174" s="6"/>
+      <c r="K174" s="6"/>
+      <c r="L174" s="6"/>
+      <c r="M174" s="6"/>
+      <c r="N174" s="6"/>
+      <c r="O174" s="6"/>
+      <c r="P174" s="6"/>
+      <c r="Q174" s="6"/>
+      <c r="R174" s="6"/>
+      <c r="S174" s="6"/>
+      <c r="T174" s="6"/>
+      <c r="U174" s="6"/>
+      <c r="V174" s="6"/>
+      <c r="W174" s="6"/>
+      <c r="X174" s="6"/>
+      <c r="Y174" s="6"/>
+      <c r="Z174" s="6"/>
+      <c r="AA174" s="6"/>
+      <c r="AB174" s="6"/>
+      <c r="AC174" s="6"/>
+      <c r="AD174" s="6"/>
+      <c r="AE174" s="6"/>
+      <c r="AF174" s="20"/>
+    </row>
+    <row r="175" spans="4:32" x14ac:dyDescent="0.4">
+      <c r="D175" s="19"/>
+      <c r="E175" s="6"/>
+      <c r="F175" s="6"/>
+      <c r="G175" s="6"/>
+      <c r="H175" s="6"/>
+      <c r="I175" s="6"/>
+      <c r="J175" s="6"/>
+      <c r="K175" s="6"/>
+      <c r="L175" s="6"/>
+      <c r="M175" s="6"/>
+      <c r="N175" s="6"/>
+      <c r="O175" s="6"/>
+      <c r="P175" s="6"/>
+      <c r="Q175" s="6"/>
+      <c r="R175" s="6"/>
+      <c r="S175" s="6"/>
+      <c r="T175" s="6"/>
+      <c r="U175" s="6"/>
+      <c r="V175" s="6"/>
+      <c r="W175" s="6"/>
+      <c r="X175" s="6"/>
+      <c r="Y175" s="6"/>
+      <c r="Z175" s="6"/>
+      <c r="AA175" s="6"/>
+      <c r="AB175" s="6"/>
+      <c r="AC175" s="6"/>
+      <c r="AD175" s="6"/>
+      <c r="AE175" s="6"/>
+      <c r="AF175" s="20"/>
+    </row>
+    <row r="176" spans="4:32" x14ac:dyDescent="0.4">
+      <c r="D176" s="19"/>
+      <c r="E176" s="6"/>
+      <c r="F176" s="6"/>
+      <c r="G176" s="6"/>
+      <c r="H176" s="6"/>
+      <c r="I176" s="6"/>
+      <c r="J176" s="6"/>
+      <c r="K176" s="6"/>
+      <c r="L176" s="6"/>
+      <c r="M176" s="6"/>
+      <c r="N176" s="6"/>
+      <c r="O176" s="6"/>
+      <c r="P176" s="6"/>
+      <c r="Q176" s="6"/>
+      <c r="R176" s="6"/>
+      <c r="S176" s="6"/>
+      <c r="T176" s="6"/>
+      <c r="U176" s="6"/>
+      <c r="V176" s="6"/>
+      <c r="W176" s="6"/>
+      <c r="X176" s="6"/>
+      <c r="Y176" s="6"/>
+      <c r="Z176" s="6"/>
+      <c r="AA176" s="6"/>
+      <c r="AB176" s="6"/>
+      <c r="AC176" s="6"/>
+      <c r="AD176" s="6"/>
+      <c r="AE176" s="6"/>
+      <c r="AF176" s="20"/>
+    </row>
+    <row r="177" spans="4:40" x14ac:dyDescent="0.4">
+      <c r="D177" s="19"/>
+      <c r="E177" s="6"/>
+      <c r="F177" s="6"/>
+      <c r="G177" s="6"/>
+      <c r="H177" s="6"/>
+      <c r="I177" s="6"/>
+      <c r="J177" s="6"/>
+      <c r="K177" s="6"/>
+      <c r="L177" s="6"/>
+      <c r="M177" s="6"/>
+      <c r="N177" s="6"/>
+      <c r="O177" s="6"/>
+      <c r="P177" s="6"/>
+      <c r="Q177" s="6"/>
+      <c r="R177" s="6"/>
+      <c r="S177" s="6"/>
+      <c r="T177" s="6"/>
+      <c r="U177" s="6"/>
+      <c r="V177" s="6"/>
+      <c r="W177" s="6"/>
+      <c r="X177" s="6"/>
+      <c r="Y177" s="6"/>
+      <c r="Z177" s="6"/>
+      <c r="AA177" s="6"/>
+      <c r="AB177" s="6"/>
+      <c r="AC177" s="6"/>
+      <c r="AD177" s="6"/>
+      <c r="AE177" s="6"/>
+      <c r="AF177" s="20"/>
+    </row>
+    <row r="178" spans="4:40" x14ac:dyDescent="0.4">
+      <c r="D178" s="19"/>
+      <c r="E178" s="6"/>
+      <c r="F178" s="6"/>
+      <c r="G178" s="6"/>
+      <c r="H178" s="6"/>
+      <c r="I178" s="6"/>
+      <c r="J178" s="6"/>
+      <c r="K178" s="6"/>
+      <c r="L178" s="6"/>
+      <c r="M178" s="6"/>
+      <c r="N178" s="6"/>
+      <c r="O178" s="6"/>
+      <c r="P178" s="6"/>
+      <c r="Q178" s="6"/>
+      <c r="R178" s="6"/>
+      <c r="S178" s="6"/>
+      <c r="T178" s="6"/>
+      <c r="U178" s="6"/>
+      <c r="V178" s="6"/>
+      <c r="W178" s="6"/>
+      <c r="X178" s="6"/>
+      <c r="Y178" s="6"/>
+      <c r="Z178" s="6"/>
+      <c r="AA178" s="6"/>
+      <c r="AB178" s="6"/>
+      <c r="AC178" s="6"/>
+      <c r="AD178" s="6"/>
+      <c r="AE178" s="6"/>
+      <c r="AF178" s="20"/>
+    </row>
+    <row r="179" spans="4:40" x14ac:dyDescent="0.4">
+      <c r="D179" s="19"/>
+      <c r="E179" s="6"/>
+      <c r="F179" s="6"/>
+      <c r="G179" s="6"/>
+      <c r="H179" s="6"/>
+      <c r="I179" s="6"/>
+      <c r="J179" s="6"/>
+      <c r="K179" s="6"/>
+      <c r="L179" s="6"/>
+      <c r="M179" s="6"/>
+      <c r="N179" s="6"/>
+      <c r="O179" s="6"/>
+      <c r="P179" s="6"/>
+      <c r="Q179" s="6"/>
+      <c r="R179" s="6"/>
+      <c r="S179" s="6"/>
+      <c r="T179" s="6"/>
+      <c r="U179" s="6"/>
+      <c r="V179" s="6"/>
+      <c r="W179" s="6"/>
+      <c r="X179" s="6"/>
+      <c r="Y179" s="6"/>
+      <c r="Z179" s="6"/>
+      <c r="AA179" s="6"/>
+      <c r="AB179" s="6"/>
+      <c r="AC179" s="6"/>
+      <c r="AD179" s="6"/>
+      <c r="AE179" s="6"/>
+      <c r="AF179" s="20"/>
+    </row>
+    <row r="180" spans="4:40" x14ac:dyDescent="0.4">
+      <c r="D180" s="19"/>
+      <c r="E180" s="6"/>
+      <c r="F180" s="6"/>
+      <c r="G180" s="6"/>
+      <c r="H180" s="6"/>
+      <c r="I180" s="6"/>
+      <c r="J180" s="6"/>
+      <c r="K180" s="6"/>
+      <c r="L180" s="6"/>
+      <c r="M180" s="6"/>
+      <c r="N180" s="6"/>
+      <c r="O180" s="6"/>
+      <c r="P180" s="6"/>
+      <c r="Q180" s="6"/>
+      <c r="R180" s="6"/>
+      <c r="S180" s="6"/>
+      <c r="T180" s="6"/>
+      <c r="U180" s="6"/>
+      <c r="V180" s="6"/>
+      <c r="W180" s="6"/>
+      <c r="X180" s="6"/>
+      <c r="Y180" s="6"/>
+      <c r="Z180" s="6"/>
+      <c r="AA180" s="6"/>
+      <c r="AB180" s="6"/>
+      <c r="AC180" s="6"/>
+      <c r="AD180" s="6"/>
+      <c r="AE180" s="6"/>
+      <c r="AF180" s="20"/>
+    </row>
+    <row r="181" spans="4:40" x14ac:dyDescent="0.4">
+      <c r="D181" s="19"/>
+      <c r="E181" s="6"/>
+      <c r="F181" s="6"/>
+      <c r="G181" s="6"/>
+      <c r="H181" s="6"/>
+      <c r="I181" s="6"/>
+      <c r="J181" s="6"/>
+      <c r="K181" s="6"/>
+      <c r="L181" s="6"/>
+      <c r="M181" s="6"/>
+      <c r="N181" s="6"/>
+      <c r="O181" s="6"/>
+      <c r="P181" s="6"/>
+      <c r="Q181" s="6"/>
+      <c r="R181" s="6"/>
+      <c r="S181" s="6"/>
+      <c r="T181" s="6"/>
+      <c r="U181" s="6"/>
+      <c r="V181" s="6"/>
+      <c r="W181" s="6"/>
+      <c r="X181" s="6"/>
+      <c r="Y181" s="6"/>
+      <c r="Z181" s="6"/>
+      <c r="AA181" s="6"/>
+      <c r="AB181" s="6"/>
+      <c r="AC181" s="6"/>
+      <c r="AD181" s="6"/>
+      <c r="AE181" s="6"/>
+      <c r="AF181" s="20"/>
+    </row>
+    <row r="182" spans="4:40" x14ac:dyDescent="0.4">
+      <c r="D182" s="19"/>
+      <c r="E182" s="6"/>
+      <c r="F182" s="6"/>
+      <c r="G182" s="6"/>
+      <c r="H182" s="6"/>
+      <c r="I182" s="6"/>
+      <c r="J182" s="6"/>
+      <c r="K182" s="6"/>
+      <c r="L182" s="6"/>
+      <c r="M182" s="6"/>
+      <c r="N182" s="6"/>
+      <c r="O182" s="6"/>
+      <c r="P182" s="6"/>
+      <c r="Q182" s="6"/>
+      <c r="R182" s="6"/>
+      <c r="S182" s="6"/>
+      <c r="T182" s="6"/>
+      <c r="U182" s="6"/>
+      <c r="V182" s="6"/>
+      <c r="W182" s="6"/>
+      <c r="X182" s="6"/>
+      <c r="Y182" s="6"/>
+      <c r="Z182" s="6"/>
+      <c r="AA182" s="6"/>
+      <c r="AB182" s="6"/>
+      <c r="AC182" s="6"/>
+      <c r="AD182" s="6"/>
+      <c r="AE182" s="6"/>
+      <c r="AF182" s="20"/>
+    </row>
+    <row r="183" spans="4:40" x14ac:dyDescent="0.4">
+      <c r="D183" s="19"/>
+      <c r="E183" s="6"/>
+      <c r="F183" s="6"/>
+      <c r="G183" s="6"/>
+      <c r="H183" s="6"/>
+      <c r="I183" s="6"/>
+      <c r="J183" s="6"/>
+      <c r="K183" s="6"/>
+      <c r="L183" s="6"/>
+      <c r="M183" s="6"/>
+      <c r="N183" s="6"/>
+      <c r="O183" s="6"/>
+      <c r="P183" s="6"/>
+      <c r="Q183" s="6"/>
+      <c r="R183" s="6"/>
+      <c r="S183" s="6"/>
+      <c r="T183" s="6"/>
+      <c r="U183" s="6"/>
+      <c r="V183" s="6"/>
+      <c r="W183" s="6"/>
+      <c r="X183" s="6"/>
+      <c r="Y183" s="6"/>
+      <c r="Z183" s="6"/>
+      <c r="AA183" s="6"/>
+      <c r="AB183" s="6"/>
+      <c r="AC183" s="6"/>
+      <c r="AD183" s="6"/>
+      <c r="AE183" s="6"/>
+      <c r="AF183" s="20"/>
+    </row>
+    <row r="184" spans="4:40" x14ac:dyDescent="0.4">
+      <c r="D184" s="19"/>
+      <c r="E184" s="6"/>
+      <c r="F184" s="6"/>
+      <c r="G184" s="6"/>
+      <c r="H184" s="6"/>
+      <c r="I184" s="6"/>
+      <c r="J184" s="6"/>
+      <c r="K184" s="6"/>
+      <c r="L184" s="6"/>
+      <c r="M184" s="6"/>
+      <c r="N184" s="6"/>
+      <c r="O184" s="6"/>
+      <c r="P184" s="6"/>
+      <c r="Q184" s="6"/>
+      <c r="R184" s="6"/>
+      <c r="S184" s="6"/>
+      <c r="T184" s="6"/>
+      <c r="U184" s="6"/>
+      <c r="V184" s="6"/>
+      <c r="W184" s="6"/>
+      <c r="X184" s="6"/>
+      <c r="Y184" s="6"/>
+      <c r="Z184" s="6"/>
+      <c r="AA184" s="6"/>
+      <c r="AB184" s="6"/>
+      <c r="AC184" s="6"/>
+      <c r="AD184" s="6"/>
+      <c r="AE184" s="6"/>
+      <c r="AF184" s="20"/>
+    </row>
+    <row r="185" spans="4:40" x14ac:dyDescent="0.4">
+      <c r="D185" s="19"/>
+      <c r="E185" s="6"/>
+      <c r="F185" s="6"/>
+      <c r="G185" s="6"/>
+      <c r="H185" s="6"/>
+      <c r="I185" s="6"/>
+      <c r="J185" s="6"/>
+      <c r="K185" s="6"/>
+      <c r="L185" s="6"/>
+      <c r="M185" s="6"/>
+      <c r="N185" s="6"/>
+      <c r="O185" s="6"/>
+      <c r="P185" s="6"/>
+      <c r="Q185" s="6"/>
+      <c r="R185" s="6"/>
+      <c r="S185" s="6"/>
+      <c r="T185" s="6"/>
+      <c r="U185" s="6"/>
+      <c r="V185" s="6"/>
+      <c r="W185" s="6"/>
+      <c r="X185" s="6"/>
+      <c r="Y185" s="6"/>
+      <c r="Z185" s="6"/>
+      <c r="AA185" s="6"/>
+      <c r="AB185" s="6"/>
+      <c r="AC185" s="6"/>
+      <c r="AD185" s="6"/>
+      <c r="AE185" s="6"/>
+      <c r="AF185" s="20"/>
+    </row>
+    <row r="186" spans="4:40" x14ac:dyDescent="0.4">
+      <c r="D186" s="19"/>
+      <c r="E186" s="6"/>
+      <c r="F186" s="6"/>
+      <c r="G186" s="6"/>
+      <c r="H186" s="6"/>
+      <c r="I186" s="6"/>
+      <c r="J186" s="6"/>
+      <c r="K186" s="6"/>
+      <c r="L186" s="6"/>
+      <c r="M186" s="6"/>
+      <c r="N186" s="6"/>
+      <c r="O186" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P186" s="6"/>
+      <c r="Q186" s="6"/>
+      <c r="R186" s="6"/>
+      <c r="S186" s="6"/>
+      <c r="T186" s="6"/>
+      <c r="U186" s="6"/>
+      <c r="V186" s="6"/>
+      <c r="W186" s="6"/>
+      <c r="X186" s="6"/>
+      <c r="Y186" s="6"/>
+      <c r="Z186" s="6"/>
+      <c r="AA186" s="6"/>
+      <c r="AB186" s="6"/>
+      <c r="AC186" s="6"/>
+      <c r="AD186" s="6"/>
+      <c r="AE186" s="6"/>
+      <c r="AF186" s="20"/>
+    </row>
+    <row r="187" spans="4:40" x14ac:dyDescent="0.4">
+      <c r="D187" s="19"/>
+      <c r="E187" s="6"/>
+      <c r="F187" s="6"/>
+      <c r="G187" s="6"/>
+      <c r="H187" s="6"/>
+      <c r="I187" s="6"/>
+      <c r="J187" s="6"/>
+      <c r="K187" s="6"/>
+      <c r="L187" s="6"/>
+      <c r="M187" s="6"/>
+      <c r="N187" s="6"/>
+      <c r="O187" s="6"/>
+      <c r="P187" s="6"/>
+      <c r="Q187" s="6"/>
+      <c r="R187" s="6"/>
+      <c r="S187" s="6"/>
+      <c r="T187" s="6"/>
+      <c r="U187" s="6"/>
+      <c r="V187" s="6"/>
+      <c r="W187" s="6"/>
+      <c r="X187" s="6"/>
+      <c r="Y187" s="6"/>
+      <c r="Z187" s="6"/>
+      <c r="AA187" s="6"/>
+      <c r="AB187" s="6"/>
+      <c r="AC187" s="6"/>
+      <c r="AD187" s="6"/>
+      <c r="AE187" s="6"/>
+      <c r="AF187" s="20"/>
+    </row>
+    <row r="188" spans="4:40" x14ac:dyDescent="0.4">
+      <c r="D188" s="21"/>
+      <c r="E188" s="22"/>
+      <c r="F188" s="22"/>
+      <c r="G188" s="22"/>
+      <c r="H188" s="22"/>
+      <c r="I188" s="22"/>
+      <c r="J188" s="22"/>
+      <c r="K188" s="22"/>
+      <c r="L188" s="22"/>
+      <c r="M188" s="22"/>
+      <c r="N188" s="22"/>
+      <c r="O188" s="22"/>
+      <c r="P188" s="22"/>
+      <c r="Q188" s="22"/>
+      <c r="R188" s="22"/>
+      <c r="S188" s="22"/>
+      <c r="T188" s="22"/>
+      <c r="U188" s="22"/>
+      <c r="V188" s="22"/>
+      <c r="W188" s="22"/>
+      <c r="X188" s="22"/>
+      <c r="Y188" s="22"/>
+      <c r="Z188" s="22"/>
+      <c r="AA188" s="22"/>
+      <c r="AB188" s="22"/>
+      <c r="AC188" s="22"/>
+      <c r="AD188" s="22"/>
+      <c r="AE188" s="22"/>
+      <c r="AF188" s="23"/>
+    </row>
+    <row r="191" spans="4:40" x14ac:dyDescent="0.4">
+      <c r="D191" s="16"/>
+      <c r="E191" s="17"/>
+      <c r="F191" s="17"/>
+      <c r="G191" s="17"/>
+      <c r="H191" s="17"/>
+      <c r="I191" s="17"/>
+      <c r="J191" s="17"/>
+      <c r="K191" s="17"/>
+      <c r="L191" s="17"/>
+      <c r="M191" s="17"/>
+      <c r="N191" s="17"/>
+      <c r="O191" s="17"/>
+      <c r="P191" s="17"/>
+      <c r="Q191" s="17"/>
+      <c r="R191" s="17"/>
+      <c r="S191" s="17"/>
+      <c r="T191" s="17"/>
+      <c r="U191" s="17"/>
+      <c r="V191" s="17"/>
+      <c r="W191" s="17"/>
+      <c r="X191" s="17"/>
+      <c r="Y191" s="17"/>
+      <c r="Z191" s="17"/>
+      <c r="AA191" s="17"/>
+      <c r="AB191" s="17"/>
+      <c r="AC191" s="17"/>
+      <c r="AD191" s="17"/>
+      <c r="AE191" s="17"/>
+      <c r="AF191" s="17"/>
+      <c r="AG191" s="17"/>
+      <c r="AH191" s="17"/>
+      <c r="AI191" s="17"/>
+      <c r="AJ191" s="17"/>
+      <c r="AK191" s="17"/>
+      <c r="AL191" s="17"/>
+      <c r="AM191" s="17"/>
+      <c r="AN191" s="18"/>
+    </row>
+    <row r="192" spans="4:40" x14ac:dyDescent="0.4">
+      <c r="D192" s="19"/>
+      <c r="E192" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F192" s="6"/>
+      <c r="G192" s="6"/>
+      <c r="H192" s="6"/>
+      <c r="I192" s="6"/>
+      <c r="J192" s="6"/>
+      <c r="K192" s="6"/>
+      <c r="L192" s="6"/>
+      <c r="M192" s="6"/>
+      <c r="N192" s="6"/>
+      <c r="O192" s="6"/>
+      <c r="P192" s="6"/>
+      <c r="Q192" s="6"/>
+      <c r="R192" s="6"/>
+      <c r="S192" s="6"/>
+      <c r="T192" s="6"/>
+      <c r="U192" s="6"/>
+      <c r="V192" s="6"/>
+      <c r="W192" s="6"/>
+      <c r="X192" s="6"/>
+      <c r="Y192" s="6"/>
+      <c r="Z192" s="6"/>
+      <c r="AA192" s="6"/>
+      <c r="AB192" s="12"/>
+      <c r="AC192" s="6"/>
+      <c r="AD192" s="6"/>
+      <c r="AE192" s="6"/>
+      <c r="AF192" s="6"/>
+      <c r="AG192" s="6"/>
+      <c r="AH192" s="6"/>
+      <c r="AI192" s="6"/>
+      <c r="AJ192" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK192" s="6"/>
+      <c r="AL192" s="6"/>
+      <c r="AM192" s="6"/>
+      <c r="AN192" s="20"/>
+    </row>
+    <row r="193" spans="4:40" x14ac:dyDescent="0.4">
+      <c r="D193" s="19"/>
+      <c r="E193" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F193" s="6"/>
+      <c r="G193" s="6"/>
+      <c r="H193" s="6"/>
+      <c r="I193" s="6"/>
+      <c r="J193" s="6"/>
+      <c r="K193" s="6"/>
+      <c r="L193" s="6"/>
+      <c r="M193" s="6"/>
+      <c r="N193" s="6"/>
+      <c r="O193" s="6"/>
+      <c r="P193" s="6"/>
+      <c r="Q193" s="6"/>
+      <c r="R193" s="6"/>
+      <c r="S193" s="6"/>
+      <c r="T193" s="6"/>
+      <c r="U193" s="6"/>
+      <c r="V193" s="6"/>
+      <c r="W193" s="6"/>
+      <c r="X193" s="6"/>
+      <c r="Y193" s="6"/>
+      <c r="Z193" s="6"/>
+      <c r="AA193" s="6"/>
+      <c r="AB193" s="15"/>
+      <c r="AC193" s="6"/>
+      <c r="AD193" s="6"/>
+      <c r="AE193" s="6"/>
+      <c r="AF193" s="6"/>
+      <c r="AG193" s="6"/>
+      <c r="AH193" s="6"/>
+      <c r="AI193" s="6"/>
+      <c r="AJ193" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK193" s="6"/>
+      <c r="AL193" s="6"/>
+      <c r="AM193" s="6"/>
+      <c r="AN193" s="20"/>
+    </row>
+    <row r="194" spans="4:40" x14ac:dyDescent="0.4">
+      <c r="D194" s="19"/>
+      <c r="E194" s="6"/>
+      <c r="F194" s="6"/>
+      <c r="G194" s="6"/>
+      <c r="H194" s="6"/>
+      <c r="I194" s="6"/>
+      <c r="J194" s="6"/>
+      <c r="K194" s="6"/>
+      <c r="L194" s="6"/>
+      <c r="M194" s="6"/>
+      <c r="N194" s="6"/>
+      <c r="O194" s="6"/>
+      <c r="P194" s="6"/>
+      <c r="Q194" s="6"/>
+      <c r="R194" s="6"/>
+      <c r="S194" s="6"/>
+      <c r="T194" s="6"/>
+      <c r="U194" s="6"/>
+      <c r="V194" s="6"/>
+      <c r="W194" s="6"/>
+      <c r="X194" s="6"/>
+      <c r="Y194" s="6"/>
+      <c r="Z194" s="6"/>
+      <c r="AA194" s="6"/>
+      <c r="AB194" s="6"/>
+      <c r="AC194" s="6"/>
+      <c r="AD194" s="6"/>
+      <c r="AE194" s="6"/>
+      <c r="AF194" s="6"/>
+      <c r="AG194" s="6"/>
+      <c r="AH194" s="6"/>
+      <c r="AI194" s="6"/>
+      <c r="AJ194" s="6"/>
+      <c r="AK194" s="6"/>
+      <c r="AL194" s="6"/>
+      <c r="AM194" s="6"/>
+      <c r="AN194" s="20"/>
+    </row>
+    <row r="195" spans="4:40" x14ac:dyDescent="0.4">
+      <c r="D195" s="19"/>
+      <c r="E195" s="6"/>
+      <c r="F195" s="6"/>
+      <c r="G195" s="6"/>
+      <c r="H195" s="6"/>
+      <c r="I195" s="6"/>
+      <c r="J195" s="6"/>
+      <c r="K195" s="6"/>
+      <c r="L195" s="6"/>
+      <c r="M195" s="6"/>
+      <c r="N195" s="6"/>
+      <c r="O195" s="6"/>
+      <c r="P195" s="6"/>
+      <c r="Q195" s="6"/>
+      <c r="R195" s="6"/>
+      <c r="S195" s="6"/>
+      <c r="T195" s="6"/>
+      <c r="U195" s="6"/>
+      <c r="V195" s="6"/>
+      <c r="W195" s="6"/>
+      <c r="X195" s="6"/>
+      <c r="Y195" s="6"/>
+      <c r="Z195" s="6"/>
+      <c r="AA195" s="6"/>
+      <c r="AB195" s="6"/>
+      <c r="AC195" s="6"/>
+      <c r="AD195" s="6"/>
+      <c r="AE195" s="6"/>
+      <c r="AF195" s="6"/>
+      <c r="AG195" s="6"/>
+      <c r="AH195" s="6"/>
+      <c r="AI195" s="6"/>
+      <c r="AJ195" s="6"/>
+      <c r="AK195" s="6"/>
+      <c r="AL195" s="6"/>
+      <c r="AM195" s="6"/>
+      <c r="AN195" s="20"/>
+    </row>
+    <row r="196" spans="4:40" x14ac:dyDescent="0.4">
+      <c r="D196" s="19"/>
+      <c r="E196" s="6"/>
+      <c r="F196" s="6"/>
+      <c r="G196" s="6"/>
+      <c r="H196" s="6"/>
+      <c r="I196" s="6"/>
+      <c r="J196" s="6"/>
+      <c r="K196" s="6"/>
+      <c r="L196" s="6"/>
+      <c r="M196" s="6"/>
+      <c r="N196" s="6"/>
+      <c r="O196" s="6"/>
+      <c r="P196" s="6"/>
+      <c r="Q196" s="6"/>
+      <c r="R196" s="6"/>
+      <c r="S196" s="6"/>
+      <c r="T196" s="6"/>
+      <c r="U196" s="6"/>
+      <c r="V196" s="6"/>
+      <c r="W196" s="6"/>
+      <c r="X196" s="6"/>
+      <c r="Y196" s="6"/>
+      <c r="Z196" s="6"/>
+      <c r="AA196" s="6"/>
+      <c r="AB196" s="6"/>
+      <c r="AC196" s="6"/>
+      <c r="AD196" s="6"/>
+      <c r="AE196" s="6"/>
+      <c r="AF196" s="6"/>
+      <c r="AG196" s="6"/>
+      <c r="AH196" s="6"/>
+      <c r="AI196" s="6"/>
+      <c r="AJ196" s="6"/>
+      <c r="AK196" s="6"/>
+      <c r="AL196" s="6"/>
+      <c r="AM196" s="6"/>
+      <c r="AN196" s="20"/>
+    </row>
+    <row r="197" spans="4:40" x14ac:dyDescent="0.4">
+      <c r="D197" s="19"/>
+      <c r="E197" s="6"/>
+      <c r="F197" s="6"/>
+      <c r="G197" s="6"/>
+      <c r="H197" s="6"/>
+      <c r="I197" s="6"/>
+      <c r="J197" s="6"/>
+      <c r="K197" s="6"/>
+      <c r="L197" s="6"/>
+      <c r="M197" s="6"/>
+      <c r="N197" s="6"/>
+      <c r="O197" s="6"/>
+      <c r="P197" s="6"/>
+      <c r="Q197" s="6"/>
+      <c r="R197" s="6"/>
+      <c r="S197" s="6"/>
+      <c r="T197" s="6"/>
+      <c r="U197" s="6"/>
+      <c r="V197" s="6"/>
+      <c r="W197" s="6"/>
+      <c r="X197" s="6"/>
+      <c r="Y197" s="6"/>
+      <c r="Z197" s="6"/>
+      <c r="AA197" s="6"/>
+      <c r="AB197" s="6"/>
+      <c r="AC197" s="6"/>
+      <c r="AD197" s="6"/>
+      <c r="AE197" s="6"/>
+      <c r="AF197" s="6"/>
+      <c r="AG197" s="6"/>
+      <c r="AH197" s="6"/>
+      <c r="AI197" s="6"/>
+      <c r="AJ197" s="6"/>
+      <c r="AK197" s="6"/>
+      <c r="AL197" s="6"/>
+      <c r="AM197" s="6"/>
+      <c r="AN197" s="20"/>
+    </row>
+    <row r="198" spans="4:40" x14ac:dyDescent="0.4">
+      <c r="D198" s="19"/>
+      <c r="E198" s="6"/>
+      <c r="F198" s="6"/>
+      <c r="G198" s="6"/>
+      <c r="H198" s="6"/>
+      <c r="I198" s="6"/>
+      <c r="J198" s="6"/>
+      <c r="K198" s="6"/>
+      <c r="L198" s="6"/>
+      <c r="M198" s="6"/>
+      <c r="N198" s="6"/>
+      <c r="O198" s="6"/>
+      <c r="P198" s="6"/>
+      <c r="Q198" s="6"/>
+      <c r="R198" s="6"/>
+      <c r="S198" s="6"/>
+      <c r="T198" s="6"/>
+      <c r="U198" s="6"/>
+      <c r="V198" s="6"/>
+      <c r="W198" s="6"/>
+      <c r="X198" s="6"/>
+      <c r="Y198" s="6"/>
+      <c r="Z198" s="6"/>
+      <c r="AA198" s="6"/>
+      <c r="AB198" s="6"/>
+      <c r="AC198" s="6"/>
+      <c r="AD198" s="6"/>
+      <c r="AE198" s="6"/>
+      <c r="AF198" s="6"/>
+      <c r="AG198" s="6"/>
+      <c r="AH198" s="6"/>
+      <c r="AI198" s="6"/>
+      <c r="AJ198" s="6"/>
+      <c r="AK198" s="6"/>
+      <c r="AL198" s="6"/>
+      <c r="AM198" s="6"/>
+      <c r="AN198" s="20"/>
+    </row>
+    <row r="199" spans="4:40" x14ac:dyDescent="0.4">
+      <c r="D199" s="19"/>
+      <c r="E199" s="24"/>
+      <c r="F199" s="6"/>
+      <c r="G199" s="6"/>
+      <c r="H199" s="6"/>
+      <c r="I199" s="6"/>
+      <c r="J199" s="6"/>
+      <c r="K199" s="6"/>
+      <c r="L199" s="6"/>
+      <c r="M199" s="6"/>
+      <c r="N199" s="6"/>
+      <c r="O199" s="6"/>
+      <c r="P199" s="6"/>
+      <c r="Q199" s="6"/>
+      <c r="R199" s="6"/>
+      <c r="S199" s="6"/>
+      <c r="T199" s="6"/>
+      <c r="U199" s="6"/>
+      <c r="V199" s="6"/>
+      <c r="W199" s="6"/>
+      <c r="X199" s="6"/>
+      <c r="Y199" s="6"/>
+      <c r="Z199" s="6"/>
+      <c r="AA199" s="6"/>
+      <c r="AB199" s="6"/>
+      <c r="AC199" s="6"/>
+      <c r="AD199" s="6"/>
+      <c r="AE199" s="6"/>
+      <c r="AF199" s="6"/>
+      <c r="AG199" s="6"/>
+      <c r="AH199" s="6"/>
+      <c r="AI199" s="6"/>
+      <c r="AJ199" s="6"/>
+      <c r="AK199" s="6"/>
+      <c r="AL199" s="6"/>
+      <c r="AM199" s="6"/>
+      <c r="AN199" s="20"/>
+    </row>
+    <row r="200" spans="4:40" x14ac:dyDescent="0.4">
+      <c r="D200" s="19"/>
+      <c r="E200" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F200" s="6"/>
+      <c r="G200" s="6"/>
+      <c r="H200" s="6"/>
+      <c r="I200" s="6"/>
+      <c r="J200" s="6"/>
+      <c r="K200" s="6"/>
+      <c r="L200" s="6"/>
+      <c r="M200" s="6"/>
+      <c r="N200" s="6"/>
+      <c r="O200" s="6"/>
+      <c r="P200" s="6"/>
+      <c r="Q200" s="6"/>
+      <c r="R200" s="6"/>
+      <c r="S200" s="6"/>
+      <c r="T200" s="6"/>
+      <c r="U200" s="6"/>
+      <c r="V200" s="6"/>
+      <c r="W200" s="6"/>
+      <c r="X200" s="6"/>
+      <c r="Y200" s="6"/>
+      <c r="Z200" s="6"/>
+      <c r="AA200" s="6"/>
+      <c r="AB200" s="6"/>
+      <c r="AC200" s="6"/>
+      <c r="AD200" s="6"/>
+      <c r="AE200" s="6"/>
+      <c r="AF200" s="6"/>
+      <c r="AG200" s="6"/>
+      <c r="AH200" s="6"/>
+      <c r="AI200" s="6"/>
+      <c r="AJ200" s="6"/>
+      <c r="AK200" s="6"/>
+      <c r="AL200" s="6"/>
+      <c r="AM200" s="6"/>
+      <c r="AN200" s="20"/>
+    </row>
+    <row r="201" spans="4:40" x14ac:dyDescent="0.4">
+      <c r="D201" s="19"/>
+      <c r="E201" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F201" s="6"/>
+      <c r="G201" s="6"/>
+      <c r="H201" s="6"/>
+      <c r="I201" s="6"/>
+      <c r="J201" s="6"/>
+      <c r="K201" s="6"/>
+      <c r="L201" s="6"/>
+      <c r="M201" s="6"/>
+      <c r="N201" s="6"/>
+      <c r="O201" s="6"/>
+      <c r="P201" s="6"/>
+      <c r="Q201" s="6"/>
+      <c r="R201" s="6"/>
+      <c r="S201" s="6"/>
+      <c r="T201" s="6"/>
+      <c r="U201" s="6"/>
+      <c r="V201" s="6"/>
+      <c r="W201" s="6"/>
+      <c r="X201" s="6"/>
+      <c r="Y201" s="6"/>
+      <c r="Z201" s="6"/>
+      <c r="AA201" s="6"/>
+      <c r="AB201" s="6"/>
+      <c r="AC201" s="6"/>
+      <c r="AD201" s="6"/>
+      <c r="AE201" s="6"/>
+      <c r="AF201" s="6"/>
+      <c r="AG201" s="6"/>
+      <c r="AH201" s="6"/>
+      <c r="AI201" s="6"/>
+      <c r="AJ201" s="6"/>
+      <c r="AK201" s="6"/>
+      <c r="AL201" s="6"/>
+      <c r="AM201" s="6"/>
+      <c r="AN201" s="20"/>
+    </row>
+    <row r="202" spans="4:40" x14ac:dyDescent="0.4">
+      <c r="D202" s="19"/>
+      <c r="E202" s="6"/>
+      <c r="F202" s="6"/>
+      <c r="G202" s="6"/>
+      <c r="H202" s="6"/>
+      <c r="I202" s="6"/>
+      <c r="J202" s="6"/>
+      <c r="K202" s="6"/>
+      <c r="L202" s="6"/>
+      <c r="M202" s="6"/>
+      <c r="N202" s="6"/>
+      <c r="O202" s="6"/>
+      <c r="P202" s="6"/>
+      <c r="Q202" s="6"/>
+      <c r="R202" s="6"/>
+      <c r="S202" s="6"/>
+      <c r="T202" s="6"/>
+      <c r="U202" s="6"/>
+      <c r="V202" s="6"/>
+      <c r="W202" s="6"/>
+      <c r="X202" s="6"/>
+      <c r="Y202" s="6"/>
+      <c r="Z202" s="6"/>
+      <c r="AA202" s="6"/>
+      <c r="AB202" s="6"/>
+      <c r="AC202" s="6"/>
+      <c r="AD202" s="6"/>
+      <c r="AE202" s="6"/>
+      <c r="AF202" s="6"/>
+      <c r="AG202" s="6"/>
+      <c r="AH202" s="6"/>
+      <c r="AI202" s="6"/>
+      <c r="AJ202" s="6"/>
+      <c r="AK202" s="6"/>
+      <c r="AL202" s="6"/>
+      <c r="AM202" s="6"/>
+      <c r="AN202" s="20"/>
+    </row>
+    <row r="203" spans="4:40" x14ac:dyDescent="0.4">
+      <c r="D203" s="19"/>
+      <c r="E203" s="6"/>
+      <c r="F203" s="6"/>
+      <c r="G203" s="6"/>
+      <c r="H203" s="6"/>
+      <c r="I203" s="6"/>
+      <c r="J203" s="6"/>
+      <c r="K203" s="6"/>
+      <c r="L203" s="6"/>
+      <c r="M203" s="6"/>
+      <c r="N203" s="6"/>
+      <c r="O203" s="6"/>
+      <c r="P203" s="6"/>
+      <c r="Q203" s="6"/>
+      <c r="R203" s="6"/>
+      <c r="S203" s="6"/>
+      <c r="T203" s="6"/>
+      <c r="U203" s="6"/>
+      <c r="V203" s="6"/>
+      <c r="W203" s="6"/>
+      <c r="X203" s="6"/>
+      <c r="Y203" s="6"/>
+      <c r="Z203" s="6"/>
+      <c r="AA203" s="6"/>
+      <c r="AB203" s="6"/>
+      <c r="AC203" s="6"/>
+      <c r="AD203" s="6"/>
+      <c r="AE203" s="6"/>
+      <c r="AF203" s="6"/>
+      <c r="AG203" s="6"/>
+      <c r="AH203" s="6"/>
+      <c r="AI203" s="6"/>
+      <c r="AJ203" s="6"/>
+      <c r="AK203" s="6"/>
+      <c r="AL203" s="6"/>
+      <c r="AM203" s="6"/>
+      <c r="AN203" s="20"/>
+    </row>
+    <row r="204" spans="4:40" x14ac:dyDescent="0.4">
+      <c r="D204" s="19"/>
+      <c r="E204" s="6"/>
+      <c r="F204" s="6"/>
+      <c r="G204" s="6"/>
+      <c r="H204" s="6"/>
+      <c r="I204" s="6"/>
+      <c r="J204" s="6"/>
+      <c r="K204" s="6"/>
+      <c r="L204" s="6"/>
+      <c r="M204" s="6"/>
+      <c r="N204" s="6"/>
+      <c r="O204" s="6"/>
+      <c r="P204" s="6"/>
+      <c r="Q204" s="6"/>
+      <c r="R204" s="6"/>
+      <c r="S204" s="6"/>
+      <c r="T204" s="6"/>
+      <c r="U204" s="6"/>
+      <c r="V204" s="6"/>
+      <c r="W204" s="6"/>
+      <c r="X204" s="6"/>
+      <c r="Y204" s="6"/>
+      <c r="Z204" s="6"/>
+      <c r="AA204" s="6"/>
+      <c r="AB204" s="6"/>
+      <c r="AC204" s="6"/>
+      <c r="AD204" s="6"/>
+      <c r="AE204" s="6"/>
+      <c r="AF204" s="6"/>
+      <c r="AG204" s="6"/>
+      <c r="AH204" s="6"/>
+      <c r="AI204" s="6"/>
+      <c r="AJ204" s="6"/>
+      <c r="AK204" s="6"/>
+      <c r="AL204" s="6"/>
+      <c r="AM204" s="6"/>
+      <c r="AN204" s="20"/>
+    </row>
+    <row r="205" spans="4:40" x14ac:dyDescent="0.4">
+      <c r="D205" s="19"/>
+      <c r="E205" s="6"/>
+      <c r="F205" s="6"/>
+      <c r="G205" s="6"/>
+      <c r="H205" s="6"/>
+      <c r="I205" s="6"/>
+      <c r="J205" s="6"/>
+      <c r="K205" s="6"/>
+      <c r="L205" s="6"/>
+      <c r="M205" s="6"/>
+      <c r="N205" s="6"/>
+      <c r="O205" s="6"/>
+      <c r="P205" s="6"/>
+      <c r="Q205" s="6"/>
+      <c r="R205" s="6"/>
+      <c r="S205" s="6"/>
+      <c r="T205" s="6"/>
+      <c r="U205" s="6"/>
+      <c r="V205" s="6"/>
+      <c r="W205" s="6"/>
+      <c r="X205" s="6"/>
+      <c r="Y205" s="6"/>
+      <c r="Z205" s="6"/>
+      <c r="AA205" s="6"/>
+      <c r="AB205" s="6"/>
+      <c r="AC205" s="6"/>
+      <c r="AD205" s="6"/>
+      <c r="AE205" s="6"/>
+      <c r="AF205" s="6"/>
+      <c r="AG205" s="6"/>
+      <c r="AH205" s="6"/>
+      <c r="AI205" s="6"/>
+      <c r="AJ205" s="6"/>
+      <c r="AK205" s="6"/>
+      <c r="AL205" s="6"/>
+      <c r="AM205" s="6"/>
+      <c r="AN205" s="20"/>
+    </row>
+    <row r="206" spans="4:40" x14ac:dyDescent="0.4">
+      <c r="D206" s="19"/>
+      <c r="E206" s="6"/>
+      <c r="F206" s="6"/>
+      <c r="G206" s="6"/>
+      <c r="H206" s="6"/>
+      <c r="I206" s="6"/>
+      <c r="J206" s="6"/>
+      <c r="K206" s="6"/>
+      <c r="L206" s="6"/>
+      <c r="M206" s="6"/>
+      <c r="N206" s="6"/>
+      <c r="O206" s="6"/>
+      <c r="P206" s="6"/>
+      <c r="Q206" s="6"/>
+      <c r="R206" s="6"/>
+      <c r="S206" s="6"/>
+      <c r="T206" s="6"/>
+      <c r="U206" s="6"/>
+      <c r="V206" s="6"/>
+      <c r="W206" s="6"/>
+      <c r="X206" s="6"/>
+      <c r="Y206" s="6"/>
+      <c r="Z206" s="6"/>
+      <c r="AA206" s="6"/>
+      <c r="AB206" s="6"/>
+      <c r="AC206" s="6"/>
+      <c r="AD206" s="6"/>
+      <c r="AE206" s="6"/>
+      <c r="AF206" s="6"/>
+      <c r="AG206" s="6"/>
+      <c r="AH206" s="6"/>
+      <c r="AI206" s="6"/>
+      <c r="AJ206" s="6"/>
+      <c r="AK206" s="6"/>
+      <c r="AL206" s="6"/>
+      <c r="AM206" s="6"/>
+      <c r="AN206" s="20"/>
+    </row>
+    <row r="207" spans="4:40" x14ac:dyDescent="0.4">
+      <c r="D207" s="19"/>
+      <c r="E207" s="6"/>
+      <c r="F207" s="6"/>
+      <c r="G207" s="6"/>
+      <c r="H207" s="6"/>
+      <c r="I207" s="6"/>
+      <c r="J207" s="6"/>
+      <c r="K207" s="6"/>
+      <c r="L207" s="6"/>
+      <c r="M207" s="6"/>
+      <c r="N207" s="6"/>
+      <c r="O207" s="6"/>
+      <c r="P207" s="6"/>
+      <c r="Q207" s="6"/>
+      <c r="R207" s="6"/>
+      <c r="S207" s="6"/>
+      <c r="T207" s="6"/>
+      <c r="U207" s="6"/>
+      <c r="V207" s="6"/>
+      <c r="W207" s="6"/>
+      <c r="X207" s="6"/>
+      <c r="Y207" s="6"/>
+      <c r="Z207" s="6"/>
+      <c r="AA207" s="6"/>
+      <c r="AB207" s="6"/>
+      <c r="AC207" s="6"/>
+      <c r="AD207" s="6"/>
+      <c r="AE207" s="6"/>
+      <c r="AF207" s="6"/>
+      <c r="AG207" s="6"/>
+      <c r="AH207" s="6"/>
+      <c r="AI207" s="6"/>
+      <c r="AJ207" s="6"/>
+      <c r="AK207" s="6"/>
+      <c r="AL207" s="6"/>
+      <c r="AM207" s="6"/>
+      <c r="AN207" s="20"/>
+    </row>
+    <row r="208" spans="4:40" x14ac:dyDescent="0.4">
+      <c r="D208" s="19"/>
+      <c r="E208" s="6"/>
+      <c r="F208" s="6"/>
+      <c r="G208" s="6"/>
+      <c r="H208" s="6"/>
+      <c r="I208" s="6"/>
+      <c r="J208" s="6"/>
+      <c r="K208" s="6"/>
+      <c r="L208" s="6"/>
+      <c r="M208" s="6"/>
+      <c r="N208" s="6"/>
+      <c r="O208" s="6"/>
+      <c r="P208" s="6"/>
+      <c r="Q208" s="6"/>
+      <c r="R208" s="6"/>
+      <c r="S208" s="6"/>
+      <c r="T208" s="6"/>
+      <c r="U208" s="6"/>
+      <c r="V208" s="6"/>
+      <c r="W208" s="6"/>
+      <c r="X208" s="6"/>
+      <c r="Y208" s="6"/>
+      <c r="Z208" s="6"/>
+      <c r="AA208" s="6"/>
+      <c r="AB208" s="6"/>
+      <c r="AC208" s="6"/>
+      <c r="AD208" s="6"/>
+      <c r="AE208" s="6"/>
+      <c r="AF208" s="6"/>
+      <c r="AG208" s="6"/>
+      <c r="AH208" s="6"/>
+      <c r="AI208" s="6"/>
+      <c r="AJ208" s="6"/>
+      <c r="AK208" s="6"/>
+      <c r="AL208" s="6"/>
+      <c r="AM208" s="6"/>
+      <c r="AN208" s="20"/>
+    </row>
+    <row r="209" spans="4:40" x14ac:dyDescent="0.4">
+      <c r="D209" s="19"/>
+      <c r="E209" s="6"/>
+      <c r="F209" s="6"/>
+      <c r="G209" s="6"/>
+      <c r="H209" s="6"/>
+      <c r="I209" s="6"/>
+      <c r="J209" s="6"/>
+      <c r="K209" s="6"/>
+      <c r="L209" s="6"/>
+      <c r="M209" s="6"/>
+      <c r="N209" s="6"/>
+      <c r="O209" s="6"/>
+      <c r="P209" s="6"/>
+      <c r="Q209" s="6"/>
+      <c r="R209" s="6"/>
+      <c r="S209" s="6"/>
+      <c r="T209" s="6"/>
+      <c r="U209" s="6"/>
+      <c r="V209" s="6"/>
+      <c r="W209" s="6"/>
+      <c r="X209" s="6"/>
+      <c r="Y209" s="6"/>
+      <c r="Z209" s="6"/>
+      <c r="AA209" s="6"/>
+      <c r="AB209" s="6"/>
+      <c r="AC209" s="6"/>
+      <c r="AD209" s="6"/>
+      <c r="AE209" s="6"/>
+      <c r="AF209" s="6"/>
+      <c r="AG209" s="6"/>
+      <c r="AH209" s="6"/>
+      <c r="AI209" s="6"/>
+      <c r="AJ209" s="6"/>
+      <c r="AK209" s="6"/>
+      <c r="AL209" s="6"/>
+      <c r="AM209" s="6"/>
+      <c r="AN209" s="20"/>
+    </row>
+    <row r="210" spans="4:40" x14ac:dyDescent="0.4">
+      <c r="D210" s="19"/>
+      <c r="E210" s="6"/>
+      <c r="F210" s="6"/>
+      <c r="G210" s="6"/>
+      <c r="H210" s="6"/>
+      <c r="I210" s="6"/>
+      <c r="J210" s="6"/>
+      <c r="K210" s="6"/>
+      <c r="L210" s="6"/>
+      <c r="M210" s="6"/>
+      <c r="N210" s="6"/>
+      <c r="O210" s="6"/>
+      <c r="P210" s="6"/>
+      <c r="Q210" s="6"/>
+      <c r="R210" s="6"/>
+      <c r="S210" s="6"/>
+      <c r="T210" s="6"/>
+      <c r="U210" s="6"/>
+      <c r="V210" s="6"/>
+      <c r="W210" s="6"/>
+      <c r="X210" s="6"/>
+      <c r="Y210" s="6"/>
+      <c r="Z210" s="6"/>
+      <c r="AA210" s="6"/>
+      <c r="AB210" s="6"/>
+      <c r="AC210" s="6"/>
+      <c r="AD210" s="6"/>
+      <c r="AE210" s="6"/>
+      <c r="AF210" s="6"/>
+      <c r="AG210" s="6"/>
+      <c r="AH210" s="6"/>
+      <c r="AI210" s="6"/>
+      <c r="AJ210" s="6"/>
+      <c r="AK210" s="6"/>
+      <c r="AL210" s="6"/>
+      <c r="AM210" s="6"/>
+      <c r="AN210" s="20"/>
+    </row>
+    <row r="211" spans="4:40" x14ac:dyDescent="0.4">
+      <c r="D211" s="19"/>
+      <c r="E211" s="6"/>
+      <c r="F211" s="6"/>
+      <c r="G211" s="6"/>
+      <c r="H211" s="6"/>
+      <c r="I211" s="6"/>
+      <c r="J211" s="6"/>
+      <c r="K211" s="6"/>
+      <c r="L211" s="6"/>
+      <c r="M211" s="6"/>
+      <c r="N211" s="6"/>
+      <c r="O211" s="6"/>
+      <c r="P211" s="6"/>
+      <c r="Q211" s="6"/>
+      <c r="R211" s="6"/>
+      <c r="S211" s="6"/>
+      <c r="T211" s="6"/>
+      <c r="U211" s="6"/>
+      <c r="V211" s="6"/>
+      <c r="W211" s="6"/>
+      <c r="X211" s="6"/>
+      <c r="Y211" s="6"/>
+      <c r="Z211" s="6"/>
+      <c r="AA211" s="6"/>
+      <c r="AB211" s="6"/>
+      <c r="AC211" s="6"/>
+      <c r="AD211" s="6"/>
+      <c r="AE211" s="6"/>
+      <c r="AF211" s="6"/>
+      <c r="AG211" s="6"/>
+      <c r="AH211" s="6"/>
+      <c r="AI211" s="6"/>
+      <c r="AJ211" s="6"/>
+      <c r="AK211" s="6"/>
+      <c r="AL211" s="6"/>
+      <c r="AM211" s="6"/>
+      <c r="AN211" s="20"/>
+    </row>
+    <row r="212" spans="4:40" x14ac:dyDescent="0.4">
+      <c r="D212" s="19"/>
+      <c r="E212" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F212" s="6"/>
+      <c r="G212" s="6"/>
+      <c r="H212" s="6"/>
+      <c r="I212" s="6"/>
+      <c r="J212" s="6"/>
+      <c r="K212" s="6"/>
+      <c r="L212" s="6"/>
+      <c r="M212" s="6"/>
+      <c r="N212" s="6"/>
+      <c r="O212" s="6"/>
+      <c r="P212" s="6"/>
+      <c r="Q212" s="6"/>
+      <c r="R212" s="6"/>
+      <c r="S212" s="6"/>
+      <c r="T212" s="6"/>
+      <c r="U212" s="6"/>
+      <c r="V212" s="6"/>
+      <c r="W212" s="6"/>
+      <c r="X212" s="6"/>
+      <c r="Y212" s="6"/>
+      <c r="Z212" s="6"/>
+      <c r="AA212" s="6"/>
+      <c r="AB212" s="6"/>
+      <c r="AC212" s="6"/>
+      <c r="AD212" s="6"/>
+      <c r="AE212" s="6"/>
+      <c r="AF212" s="6"/>
+      <c r="AG212" s="6"/>
+      <c r="AH212" s="6"/>
+      <c r="AI212" s="6"/>
+      <c r="AJ212" s="6"/>
+      <c r="AK212" s="6"/>
+      <c r="AL212" s="6"/>
+      <c r="AM212" s="6"/>
+      <c r="AN212" s="20"/>
+    </row>
+    <row r="213" spans="4:40" x14ac:dyDescent="0.4">
+      <c r="D213" s="19"/>
+      <c r="E213" s="6"/>
+      <c r="F213" s="6"/>
+      <c r="G213" s="6"/>
+      <c r="H213" s="6"/>
+      <c r="I213" s="6"/>
+      <c r="J213" s="6"/>
+      <c r="K213" s="6"/>
+      <c r="L213" s="6"/>
+      <c r="M213" s="6"/>
+      <c r="N213" s="6"/>
+      <c r="O213" s="6"/>
+      <c r="P213" s="6"/>
+      <c r="Q213" s="6"/>
+      <c r="R213" s="6"/>
+      <c r="S213" s="6"/>
+      <c r="T213" s="6"/>
+      <c r="U213" s="6"/>
+      <c r="V213" s="6"/>
+      <c r="W213" s="6"/>
+      <c r="X213" s="6"/>
+      <c r="Y213" s="6"/>
+      <c r="Z213" s="6"/>
+      <c r="AA213" s="6"/>
+      <c r="AB213" s="6"/>
+      <c r="AC213" s="6"/>
+      <c r="AD213" s="6"/>
+      <c r="AE213" s="6"/>
+      <c r="AF213" s="6"/>
+      <c r="AG213" s="6"/>
+      <c r="AH213" s="6"/>
+      <c r="AI213" s="6"/>
+      <c r="AJ213" s="6"/>
+      <c r="AK213" s="6"/>
+      <c r="AL213" s="6"/>
+      <c r="AM213" s="6"/>
+      <c r="AN213" s="20"/>
+    </row>
+    <row r="214" spans="4:40" x14ac:dyDescent="0.4">
+      <c r="D214" s="19"/>
+      <c r="E214" s="6"/>
+      <c r="F214" s="6"/>
+      <c r="G214" s="6"/>
+      <c r="H214" s="6"/>
+      <c r="I214" s="6"/>
+      <c r="J214" s="6"/>
+      <c r="K214" s="6"/>
+      <c r="L214" s="6"/>
+      <c r="M214" s="6"/>
+      <c r="N214" s="6"/>
+      <c r="O214" s="6"/>
+      <c r="P214" s="6"/>
+      <c r="Q214" s="6"/>
+      <c r="R214" s="6"/>
+      <c r="S214" s="6"/>
+      <c r="T214" s="6"/>
+      <c r="U214" s="6"/>
+      <c r="V214" s="6"/>
+      <c r="W214" s="6"/>
+      <c r="X214" s="6"/>
+      <c r="Y214" s="6"/>
+      <c r="Z214" s="6"/>
+      <c r="AA214" s="6"/>
+      <c r="AB214" s="6"/>
+      <c r="AC214" s="6"/>
+      <c r="AD214" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE214" s="6"/>
+      <c r="AF214" s="6"/>
+      <c r="AG214" s="6"/>
+      <c r="AH214" s="6"/>
+      <c r="AI214" s="6"/>
+      <c r="AJ214" s="6"/>
+      <c r="AK214" s="6"/>
+      <c r="AL214" s="6"/>
+      <c r="AM214" s="6"/>
+      <c r="AN214" s="20"/>
+    </row>
+    <row r="215" spans="4:40" x14ac:dyDescent="0.4">
+      <c r="D215" s="19"/>
+      <c r="E215" s="6"/>
+      <c r="F215" s="6"/>
+      <c r="G215" s="6"/>
+      <c r="H215" s="6"/>
+      <c r="I215" s="6"/>
+      <c r="J215" s="6"/>
+      <c r="K215" s="6"/>
+      <c r="L215" s="6"/>
+      <c r="M215" s="6"/>
+      <c r="N215" s="6"/>
+      <c r="O215" s="6"/>
+      <c r="P215" s="6"/>
+      <c r="Q215" s="6"/>
+      <c r="R215" s="6"/>
+      <c r="S215" s="6"/>
+      <c r="T215" s="6"/>
+      <c r="U215" s="6"/>
+      <c r="V215" s="6"/>
+      <c r="W215" s="6"/>
+      <c r="X215" s="6"/>
+      <c r="Y215" s="6"/>
+      <c r="Z215" s="6"/>
+      <c r="AA215" s="6"/>
+      <c r="AB215" s="6"/>
+      <c r="AC215" s="6"/>
+      <c r="AD215" s="6"/>
+      <c r="AE215" s="6"/>
+      <c r="AF215" s="6"/>
+      <c r="AG215" s="6"/>
+      <c r="AH215" s="6"/>
+      <c r="AI215" s="6"/>
+      <c r="AJ215" s="6"/>
+      <c r="AK215" s="6"/>
+      <c r="AL215" s="6"/>
+      <c r="AM215" s="6"/>
+      <c r="AN215" s="20"/>
+    </row>
+    <row r="216" spans="4:40" x14ac:dyDescent="0.4">
+      <c r="D216" s="19"/>
+      <c r="E216" s="6"/>
+      <c r="F216" s="6"/>
+      <c r="G216" s="6"/>
+      <c r="H216" s="6"/>
+      <c r="I216" s="6"/>
+      <c r="J216" s="6"/>
+      <c r="K216" s="6"/>
+      <c r="L216" s="6"/>
+      <c r="M216" s="6"/>
+      <c r="N216" s="6"/>
+      <c r="O216" s="6"/>
+      <c r="P216" s="6"/>
+      <c r="Q216" s="6"/>
+      <c r="R216" s="6"/>
+      <c r="S216" s="6"/>
+      <c r="T216" s="6"/>
+      <c r="U216" s="6"/>
+      <c r="V216" s="6"/>
+      <c r="W216" s="6"/>
+      <c r="X216" s="6"/>
+      <c r="Y216" s="6"/>
+      <c r="Z216" s="6"/>
+      <c r="AA216" s="6"/>
+      <c r="AB216" s="6"/>
+      <c r="AC216" s="6"/>
+      <c r="AD216" s="6"/>
+      <c r="AE216" s="6"/>
+      <c r="AF216" s="6"/>
+      <c r="AG216" s="6"/>
+      <c r="AH216" s="6"/>
+      <c r="AI216" s="6"/>
+      <c r="AJ216" s="6"/>
+      <c r="AK216" s="6"/>
+      <c r="AL216" s="6"/>
+      <c r="AM216" s="6"/>
+      <c r="AN216" s="20"/>
+    </row>
+    <row r="217" spans="4:40" x14ac:dyDescent="0.4">
+      <c r="D217" s="21"/>
+      <c r="E217" s="22"/>
+      <c r="F217" s="22"/>
+      <c r="G217" s="22"/>
+      <c r="H217" s="22"/>
+      <c r="I217" s="22"/>
+      <c r="J217" s="22"/>
+      <c r="K217" s="22"/>
+      <c r="L217" s="22"/>
+      <c r="M217" s="22"/>
+      <c r="N217" s="22"/>
+      <c r="O217" s="22"/>
+      <c r="P217" s="22"/>
+      <c r="Q217" s="22"/>
+      <c r="R217" s="22"/>
+      <c r="S217" s="22"/>
+      <c r="T217" s="22"/>
+      <c r="U217" s="22"/>
+      <c r="V217" s="22"/>
+      <c r="W217" s="22"/>
+      <c r="X217" s="22"/>
+      <c r="Y217" s="22"/>
+      <c r="Z217" s="22"/>
+      <c r="AA217" s="22"/>
+      <c r="AB217" s="22"/>
+      <c r="AC217" s="22"/>
+      <c r="AD217" s="22"/>
+      <c r="AE217" s="22"/>
+      <c r="AF217" s="22"/>
+      <c r="AG217" s="22"/>
+      <c r="AH217" s="22"/>
+      <c r="AI217" s="22"/>
+      <c r="AJ217" s="22"/>
+      <c r="AK217" s="22"/>
+      <c r="AL217" s="22"/>
+      <c r="AM217" s="22"/>
+      <c r="AN217" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/JS-DataStructrues.xlsx
+++ b/JS-DataStructrues.xlsx
@@ -12356,10 +12356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D4:BG217"/>
+  <dimension ref="D4:BG249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="BJ210" sqref="BJ210"/>
+    <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
+      <selection activeCell="F228" sqref="F228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
@@ -16101,6 +16101,981 @@
       <c r="AM217" s="22"/>
       <c r="AN217" s="23"/>
     </row>
+    <row r="225" spans="4:40" x14ac:dyDescent="0.4">
+      <c r="D225" s="2"/>
+      <c r="E225" s="3"/>
+      <c r="F225" s="3"/>
+      <c r="G225" s="3"/>
+      <c r="H225" s="3"/>
+      <c r="I225" s="3"/>
+      <c r="J225" s="3"/>
+      <c r="K225" s="3"/>
+      <c r="L225" s="3"/>
+      <c r="M225" s="3"/>
+      <c r="N225" s="3"/>
+      <c r="O225" s="3"/>
+      <c r="P225" s="3"/>
+      <c r="Q225" s="3"/>
+      <c r="R225" s="3"/>
+      <c r="S225" s="3"/>
+      <c r="T225" s="3"/>
+      <c r="U225" s="3"/>
+      <c r="V225" s="3"/>
+      <c r="W225" s="3"/>
+      <c r="X225" s="3"/>
+      <c r="Y225" s="3"/>
+      <c r="Z225" s="3"/>
+      <c r="AA225" s="3"/>
+      <c r="AB225" s="3"/>
+      <c r="AC225" s="3"/>
+      <c r="AD225" s="3"/>
+      <c r="AE225" s="3"/>
+      <c r="AF225" s="3"/>
+      <c r="AG225" s="3"/>
+      <c r="AH225" s="3"/>
+      <c r="AI225" s="3"/>
+      <c r="AJ225" s="3"/>
+      <c r="AK225" s="3"/>
+      <c r="AL225" s="3"/>
+      <c r="AM225" s="3"/>
+      <c r="AN225" s="4"/>
+    </row>
+    <row r="226" spans="4:40" x14ac:dyDescent="0.4">
+      <c r="D226" s="5"/>
+      <c r="E226" s="6"/>
+      <c r="F226" s="6"/>
+      <c r="G226" s="6"/>
+      <c r="H226" s="6"/>
+      <c r="I226" s="6"/>
+      <c r="J226" s="6"/>
+      <c r="K226" s="6"/>
+      <c r="L226" s="6"/>
+      <c r="M226" s="6"/>
+      <c r="N226" s="6"/>
+      <c r="O226" s="6"/>
+      <c r="P226" s="6"/>
+      <c r="Q226" s="6"/>
+      <c r="R226" s="6"/>
+      <c r="S226" s="6"/>
+      <c r="T226" s="6"/>
+      <c r="U226" s="6"/>
+      <c r="V226" s="6"/>
+      <c r="W226" s="6"/>
+      <c r="X226" s="6"/>
+      <c r="Y226" s="6"/>
+      <c r="Z226" s="6"/>
+      <c r="AA226" s="6"/>
+      <c r="AB226" s="6"/>
+      <c r="AC226" s="6"/>
+      <c r="AD226" s="6"/>
+      <c r="AE226" s="6"/>
+      <c r="AF226" s="6"/>
+      <c r="AG226" s="6"/>
+      <c r="AH226" s="6"/>
+      <c r="AI226" s="6"/>
+      <c r="AJ226" s="6"/>
+      <c r="AK226" s="6"/>
+      <c r="AL226" s="6"/>
+      <c r="AM226" s="6"/>
+      <c r="AN226" s="7"/>
+    </row>
+    <row r="227" spans="4:40" x14ac:dyDescent="0.4">
+      <c r="D227" s="5"/>
+      <c r="E227" s="6"/>
+      <c r="F227" s="6"/>
+      <c r="G227" s="6"/>
+      <c r="H227" s="6"/>
+      <c r="I227" s="6"/>
+      <c r="J227" s="6"/>
+      <c r="K227" s="6"/>
+      <c r="L227" s="6"/>
+      <c r="M227" s="6"/>
+      <c r="N227" s="6"/>
+      <c r="O227" s="6"/>
+      <c r="P227" s="6"/>
+      <c r="Q227" s="6"/>
+      <c r="R227" s="6"/>
+      <c r="S227" s="6"/>
+      <c r="T227" s="6"/>
+      <c r="U227" s="6"/>
+      <c r="V227" s="6"/>
+      <c r="W227" s="6"/>
+      <c r="X227" s="6"/>
+      <c r="Y227" s="6"/>
+      <c r="Z227" s="6"/>
+      <c r="AA227" s="6"/>
+      <c r="AB227" s="6"/>
+      <c r="AC227" s="6"/>
+      <c r="AD227" s="6"/>
+      <c r="AE227" s="6"/>
+      <c r="AF227" s="6"/>
+      <c r="AG227" s="6"/>
+      <c r="AH227" s="6"/>
+      <c r="AI227" s="6"/>
+      <c r="AJ227" s="6"/>
+      <c r="AK227" s="6"/>
+      <c r="AL227" s="6"/>
+      <c r="AM227" s="6"/>
+      <c r="AN227" s="7"/>
+    </row>
+    <row r="228" spans="4:40" x14ac:dyDescent="0.4">
+      <c r="D228" s="5"/>
+      <c r="E228" s="6"/>
+      <c r="F228" s="6"/>
+      <c r="G228" s="6"/>
+      <c r="H228" s="6"/>
+      <c r="I228" s="6"/>
+      <c r="J228" s="6"/>
+      <c r="K228" s="6"/>
+      <c r="L228" s="6"/>
+      <c r="M228" s="6"/>
+      <c r="N228" s="6"/>
+      <c r="O228" s="6"/>
+      <c r="P228" s="6"/>
+      <c r="Q228" s="6"/>
+      <c r="R228" s="6"/>
+      <c r="S228" s="6"/>
+      <c r="T228" s="6"/>
+      <c r="U228" s="6"/>
+      <c r="V228" s="6"/>
+      <c r="W228" s="6"/>
+      <c r="X228" s="6"/>
+      <c r="Y228" s="6"/>
+      <c r="Z228" s="6"/>
+      <c r="AA228" s="6"/>
+      <c r="AB228" s="6"/>
+      <c r="AC228" s="6"/>
+      <c r="AD228" s="6"/>
+      <c r="AE228" s="6"/>
+      <c r="AF228" s="6"/>
+      <c r="AG228" s="6"/>
+      <c r="AH228" s="6"/>
+      <c r="AI228" s="6"/>
+      <c r="AJ228" s="6"/>
+      <c r="AK228" s="6"/>
+      <c r="AL228" s="6"/>
+      <c r="AM228" s="6"/>
+      <c r="AN228" s="7"/>
+    </row>
+    <row r="229" spans="4:40" x14ac:dyDescent="0.4">
+      <c r="D229" s="5"/>
+      <c r="E229" s="6"/>
+      <c r="F229" s="6"/>
+      <c r="G229" s="6"/>
+      <c r="H229" s="6"/>
+      <c r="I229" s="6"/>
+      <c r="J229" s="6"/>
+      <c r="K229" s="6"/>
+      <c r="L229" s="6"/>
+      <c r="M229" s="6"/>
+      <c r="N229" s="6"/>
+      <c r="O229" s="6"/>
+      <c r="P229" s="6"/>
+      <c r="Q229" s="6"/>
+      <c r="R229" s="6"/>
+      <c r="S229" s="6"/>
+      <c r="T229" s="6"/>
+      <c r="U229" s="6"/>
+      <c r="V229" s="6"/>
+      <c r="W229" s="6"/>
+      <c r="X229" s="6"/>
+      <c r="Y229" s="6"/>
+      <c r="Z229" s="6"/>
+      <c r="AA229" s="6"/>
+      <c r="AB229" s="6"/>
+      <c r="AC229" s="6"/>
+      <c r="AD229" s="6"/>
+      <c r="AE229" s="6"/>
+      <c r="AF229" s="6"/>
+      <c r="AG229" s="6"/>
+      <c r="AH229" s="6"/>
+      <c r="AI229" s="6"/>
+      <c r="AJ229" s="6"/>
+      <c r="AK229" s="6"/>
+      <c r="AL229" s="6"/>
+      <c r="AM229" s="6"/>
+      <c r="AN229" s="7"/>
+    </row>
+    <row r="230" spans="4:40" x14ac:dyDescent="0.4">
+      <c r="D230" s="5"/>
+      <c r="E230" s="6"/>
+      <c r="F230" s="6"/>
+      <c r="G230" s="6"/>
+      <c r="H230" s="6"/>
+      <c r="I230" s="6"/>
+      <c r="J230" s="6"/>
+      <c r="K230" s="6"/>
+      <c r="L230" s="6"/>
+      <c r="M230" s="6"/>
+      <c r="N230" s="6"/>
+      <c r="O230" s="6"/>
+      <c r="P230" s="6"/>
+      <c r="Q230" s="6"/>
+      <c r="R230" s="6"/>
+      <c r="S230" s="6"/>
+      <c r="T230" s="6"/>
+      <c r="U230" s="6"/>
+      <c r="V230" s="6"/>
+      <c r="W230" s="6"/>
+      <c r="X230" s="6"/>
+      <c r="Y230" s="6"/>
+      <c r="Z230" s="6"/>
+      <c r="AA230" s="6"/>
+      <c r="AB230" s="6"/>
+      <c r="AC230" s="6"/>
+      <c r="AD230" s="6"/>
+      <c r="AE230" s="6"/>
+      <c r="AF230" s="6"/>
+      <c r="AG230" s="6"/>
+      <c r="AH230" s="6"/>
+      <c r="AI230" s="6"/>
+      <c r="AJ230" s="6"/>
+      <c r="AK230" s="6"/>
+      <c r="AL230" s="6"/>
+      <c r="AM230" s="6"/>
+      <c r="AN230" s="7"/>
+    </row>
+    <row r="231" spans="4:40" x14ac:dyDescent="0.4">
+      <c r="D231" s="5"/>
+      <c r="E231" s="6"/>
+      <c r="F231" s="6"/>
+      <c r="G231" s="6"/>
+      <c r="H231" s="6"/>
+      <c r="I231" s="6"/>
+      <c r="J231" s="6"/>
+      <c r="K231" s="6"/>
+      <c r="L231" s="6"/>
+      <c r="M231" s="6"/>
+      <c r="N231" s="6"/>
+      <c r="O231" s="6"/>
+      <c r="P231" s="6"/>
+      <c r="Q231" s="6"/>
+      <c r="R231" s="6"/>
+      <c r="S231" s="6"/>
+      <c r="T231" s="6"/>
+      <c r="U231" s="6"/>
+      <c r="V231" s="6"/>
+      <c r="W231" s="6"/>
+      <c r="X231" s="6"/>
+      <c r="Y231" s="6"/>
+      <c r="Z231" s="6"/>
+      <c r="AA231" s="6"/>
+      <c r="AB231" s="6"/>
+      <c r="AC231" s="6"/>
+      <c r="AD231" s="6"/>
+      <c r="AE231" s="6"/>
+      <c r="AF231" s="6"/>
+      <c r="AG231" s="6"/>
+      <c r="AH231" s="6"/>
+      <c r="AI231" s="6"/>
+      <c r="AJ231" s="6"/>
+      <c r="AK231" s="6"/>
+      <c r="AL231" s="6"/>
+      <c r="AM231" s="6"/>
+      <c r="AN231" s="7"/>
+    </row>
+    <row r="232" spans="4:40" x14ac:dyDescent="0.4">
+      <c r="D232" s="5"/>
+      <c r="E232" s="6"/>
+      <c r="F232" s="6"/>
+      <c r="G232" s="6"/>
+      <c r="H232" s="6"/>
+      <c r="I232" s="6"/>
+      <c r="J232" s="6"/>
+      <c r="K232" s="6"/>
+      <c r="L232" s="6"/>
+      <c r="M232" s="6"/>
+      <c r="N232" s="6"/>
+      <c r="O232" s="6"/>
+      <c r="P232" s="6"/>
+      <c r="Q232" s="6"/>
+      <c r="R232" s="6"/>
+      <c r="S232" s="6"/>
+      <c r="T232" s="6"/>
+      <c r="U232" s="6"/>
+      <c r="V232" s="6"/>
+      <c r="W232" s="6"/>
+      <c r="X232" s="6"/>
+      <c r="Y232" s="6"/>
+      <c r="Z232" s="6"/>
+      <c r="AA232" s="6"/>
+      <c r="AB232" s="6"/>
+      <c r="AC232" s="6"/>
+      <c r="AD232" s="6"/>
+      <c r="AE232" s="6"/>
+      <c r="AF232" s="6"/>
+      <c r="AG232" s="6"/>
+      <c r="AH232" s="6"/>
+      <c r="AI232" s="6"/>
+      <c r="AJ232" s="6"/>
+      <c r="AK232" s="6"/>
+      <c r="AL232" s="6"/>
+      <c r="AM232" s="6"/>
+      <c r="AN232" s="7"/>
+    </row>
+    <row r="233" spans="4:40" x14ac:dyDescent="0.4">
+      <c r="D233" s="5"/>
+      <c r="E233" s="6"/>
+      <c r="F233" s="6"/>
+      <c r="G233" s="6"/>
+      <c r="H233" s="6"/>
+      <c r="I233" s="6"/>
+      <c r="J233" s="6"/>
+      <c r="K233" s="6"/>
+      <c r="L233" s="6"/>
+      <c r="M233" s="6"/>
+      <c r="N233" s="6"/>
+      <c r="O233" s="6"/>
+      <c r="P233" s="6"/>
+      <c r="Q233" s="6"/>
+      <c r="R233" s="6"/>
+      <c r="S233" s="6"/>
+      <c r="T233" s="6"/>
+      <c r="U233" s="6"/>
+      <c r="V233" s="6"/>
+      <c r="W233" s="6"/>
+      <c r="X233" s="6"/>
+      <c r="Y233" s="6"/>
+      <c r="Z233" s="6"/>
+      <c r="AA233" s="6"/>
+      <c r="AB233" s="6"/>
+      <c r="AC233" s="6"/>
+      <c r="AD233" s="6"/>
+      <c r="AE233" s="6"/>
+      <c r="AF233" s="6"/>
+      <c r="AG233" s="6"/>
+      <c r="AH233" s="6"/>
+      <c r="AI233" s="6"/>
+      <c r="AJ233" s="6"/>
+      <c r="AK233" s="6"/>
+      <c r="AL233" s="6"/>
+      <c r="AM233" s="6"/>
+      <c r="AN233" s="7"/>
+    </row>
+    <row r="234" spans="4:40" x14ac:dyDescent="0.4">
+      <c r="D234" s="5"/>
+      <c r="E234" s="6"/>
+      <c r="F234" s="6"/>
+      <c r="G234" s="6"/>
+      <c r="H234" s="6"/>
+      <c r="I234" s="6"/>
+      <c r="J234" s="6"/>
+      <c r="K234" s="6"/>
+      <c r="L234" s="6"/>
+      <c r="M234" s="6"/>
+      <c r="N234" s="6"/>
+      <c r="O234" s="6"/>
+      <c r="P234" s="6"/>
+      <c r="Q234" s="6"/>
+      <c r="R234" s="6"/>
+      <c r="S234" s="6"/>
+      <c r="T234" s="6"/>
+      <c r="U234" s="6"/>
+      <c r="V234" s="6"/>
+      <c r="W234" s="6"/>
+      <c r="X234" s="6"/>
+      <c r="Y234" s="6"/>
+      <c r="Z234" s="6"/>
+      <c r="AA234" s="6"/>
+      <c r="AB234" s="6"/>
+      <c r="AC234" s="6"/>
+      <c r="AD234" s="6"/>
+      <c r="AE234" s="6"/>
+      <c r="AF234" s="6"/>
+      <c r="AG234" s="6"/>
+      <c r="AH234" s="6"/>
+      <c r="AI234" s="6"/>
+      <c r="AJ234" s="6"/>
+      <c r="AK234" s="6"/>
+      <c r="AL234" s="6"/>
+      <c r="AM234" s="6"/>
+      <c r="AN234" s="7"/>
+    </row>
+    <row r="235" spans="4:40" x14ac:dyDescent="0.4">
+      <c r="D235" s="5"/>
+      <c r="E235" s="6"/>
+      <c r="F235" s="6"/>
+      <c r="G235" s="6"/>
+      <c r="H235" s="6"/>
+      <c r="I235" s="6"/>
+      <c r="J235" s="6"/>
+      <c r="K235" s="6"/>
+      <c r="L235" s="6"/>
+      <c r="M235" s="6"/>
+      <c r="N235" s="6"/>
+      <c r="O235" s="6"/>
+      <c r="P235" s="6"/>
+      <c r="Q235" s="6"/>
+      <c r="R235" s="6"/>
+      <c r="S235" s="6"/>
+      <c r="T235" s="6"/>
+      <c r="U235" s="6"/>
+      <c r="V235" s="6"/>
+      <c r="W235" s="6"/>
+      <c r="X235" s="6"/>
+      <c r="Y235" s="6"/>
+      <c r="Z235" s="6"/>
+      <c r="AA235" s="6"/>
+      <c r="AB235" s="6"/>
+      <c r="AC235" s="6"/>
+      <c r="AD235" s="6"/>
+      <c r="AE235" s="6"/>
+      <c r="AF235" s="6"/>
+      <c r="AG235" s="6"/>
+      <c r="AH235" s="6"/>
+      <c r="AI235" s="6"/>
+      <c r="AJ235" s="6"/>
+      <c r="AK235" s="6"/>
+      <c r="AL235" s="6"/>
+      <c r="AM235" s="6"/>
+      <c r="AN235" s="7"/>
+    </row>
+    <row r="236" spans="4:40" x14ac:dyDescent="0.4">
+      <c r="D236" s="5"/>
+      <c r="E236" s="6"/>
+      <c r="F236" s="6"/>
+      <c r="G236" s="6"/>
+      <c r="H236" s="6"/>
+      <c r="I236" s="6"/>
+      <c r="J236" s="6"/>
+      <c r="K236" s="6"/>
+      <c r="L236" s="6"/>
+      <c r="M236" s="6"/>
+      <c r="N236" s="6"/>
+      <c r="O236" s="6"/>
+      <c r="P236" s="6"/>
+      <c r="Q236" s="6"/>
+      <c r="R236" s="6"/>
+      <c r="S236" s="6"/>
+      <c r="T236" s="6"/>
+      <c r="U236" s="6"/>
+      <c r="V236" s="6"/>
+      <c r="W236" s="6"/>
+      <c r="X236" s="6"/>
+      <c r="Y236" s="6"/>
+      <c r="Z236" s="6"/>
+      <c r="AA236" s="6"/>
+      <c r="AB236" s="6"/>
+      <c r="AC236" s="6"/>
+      <c r="AD236" s="6"/>
+      <c r="AE236" s="6"/>
+      <c r="AF236" s="6"/>
+      <c r="AG236" s="6"/>
+      <c r="AH236" s="6"/>
+      <c r="AI236" s="6"/>
+      <c r="AJ236" s="6"/>
+      <c r="AK236" s="6"/>
+      <c r="AL236" s="6"/>
+      <c r="AM236" s="6"/>
+      <c r="AN236" s="7"/>
+    </row>
+    <row r="237" spans="4:40" x14ac:dyDescent="0.4">
+      <c r="D237" s="5"/>
+      <c r="E237" s="6"/>
+      <c r="F237" s="6"/>
+      <c r="G237" s="6"/>
+      <c r="H237" s="6"/>
+      <c r="I237" s="6"/>
+      <c r="J237" s="6"/>
+      <c r="K237" s="6"/>
+      <c r="L237" s="6"/>
+      <c r="M237" s="6"/>
+      <c r="N237" s="6"/>
+      <c r="O237" s="6"/>
+      <c r="P237" s="6"/>
+      <c r="Q237" s="6"/>
+      <c r="R237" s="6"/>
+      <c r="S237" s="6"/>
+      <c r="T237" s="6"/>
+      <c r="U237" s="6"/>
+      <c r="V237" s="6"/>
+      <c r="W237" s="6"/>
+      <c r="X237" s="6"/>
+      <c r="Y237" s="6"/>
+      <c r="Z237" s="6"/>
+      <c r="AA237" s="6"/>
+      <c r="AB237" s="6"/>
+      <c r="AC237" s="6"/>
+      <c r="AD237" s="6"/>
+      <c r="AE237" s="6"/>
+      <c r="AF237" s="6"/>
+      <c r="AG237" s="6"/>
+      <c r="AH237" s="6"/>
+      <c r="AI237" s="6"/>
+      <c r="AJ237" s="6"/>
+      <c r="AK237" s="6"/>
+      <c r="AL237" s="6"/>
+      <c r="AM237" s="6"/>
+      <c r="AN237" s="7"/>
+    </row>
+    <row r="238" spans="4:40" x14ac:dyDescent="0.4">
+      <c r="D238" s="5"/>
+      <c r="E238" s="6"/>
+      <c r="F238" s="6"/>
+      <c r="G238" s="6"/>
+      <c r="H238" s="6"/>
+      <c r="I238" s="6"/>
+      <c r="J238" s="6"/>
+      <c r="K238" s="6"/>
+      <c r="L238" s="6"/>
+      <c r="M238" s="6"/>
+      <c r="N238" s="6"/>
+      <c r="O238" s="6"/>
+      <c r="P238" s="6"/>
+      <c r="Q238" s="6"/>
+      <c r="R238" s="6"/>
+      <c r="S238" s="6"/>
+      <c r="T238" s="6"/>
+      <c r="U238" s="6"/>
+      <c r="V238" s="6"/>
+      <c r="W238" s="6"/>
+      <c r="X238" s="6"/>
+      <c r="Y238" s="6"/>
+      <c r="Z238" s="6"/>
+      <c r="AA238" s="6"/>
+      <c r="AB238" s="6"/>
+      <c r="AC238" s="6"/>
+      <c r="AD238" s="6"/>
+      <c r="AE238" s="6"/>
+      <c r="AF238" s="6"/>
+      <c r="AG238" s="6"/>
+      <c r="AH238" s="6"/>
+      <c r="AI238" s="6"/>
+      <c r="AJ238" s="6"/>
+      <c r="AK238" s="6"/>
+      <c r="AL238" s="6"/>
+      <c r="AM238" s="6"/>
+      <c r="AN238" s="7"/>
+    </row>
+    <row r="239" spans="4:40" x14ac:dyDescent="0.4">
+      <c r="D239" s="5"/>
+      <c r="E239" s="6"/>
+      <c r="F239" s="6"/>
+      <c r="G239" s="6"/>
+      <c r="H239" s="6"/>
+      <c r="I239" s="6"/>
+      <c r="J239" s="6"/>
+      <c r="K239" s="6"/>
+      <c r="L239" s="6"/>
+      <c r="M239" s="6"/>
+      <c r="N239" s="6"/>
+      <c r="O239" s="6"/>
+      <c r="P239" s="6"/>
+      <c r="Q239" s="6"/>
+      <c r="R239" s="6"/>
+      <c r="S239" s="6"/>
+      <c r="T239" s="6"/>
+      <c r="U239" s="6"/>
+      <c r="V239" s="6"/>
+      <c r="W239" s="6"/>
+      <c r="X239" s="6"/>
+      <c r="Y239" s="6"/>
+      <c r="Z239" s="6"/>
+      <c r="AA239" s="6"/>
+      <c r="AB239" s="6"/>
+      <c r="AC239" s="6"/>
+      <c r="AD239" s="6"/>
+      <c r="AE239" s="6"/>
+      <c r="AF239" s="6"/>
+      <c r="AG239" s="6"/>
+      <c r="AH239" s="6"/>
+      <c r="AI239" s="6"/>
+      <c r="AJ239" s="6"/>
+      <c r="AK239" s="6"/>
+      <c r="AL239" s="6"/>
+      <c r="AM239" s="6"/>
+      <c r="AN239" s="7"/>
+    </row>
+    <row r="240" spans="4:40" x14ac:dyDescent="0.4">
+      <c r="D240" s="5"/>
+      <c r="E240" s="6"/>
+      <c r="F240" s="6"/>
+      <c r="G240" s="6"/>
+      <c r="H240" s="6"/>
+      <c r="I240" s="6"/>
+      <c r="J240" s="6"/>
+      <c r="K240" s="6"/>
+      <c r="L240" s="6"/>
+      <c r="M240" s="6"/>
+      <c r="N240" s="6"/>
+      <c r="O240" s="6"/>
+      <c r="P240" s="6"/>
+      <c r="Q240" s="6"/>
+      <c r="R240" s="6"/>
+      <c r="S240" s="6"/>
+      <c r="T240" s="6"/>
+      <c r="U240" s="6"/>
+      <c r="V240" s="6"/>
+      <c r="W240" s="6"/>
+      <c r="X240" s="6"/>
+      <c r="Y240" s="6"/>
+      <c r="Z240" s="6"/>
+      <c r="AA240" s="6"/>
+      <c r="AB240" s="6"/>
+      <c r="AC240" s="6"/>
+      <c r="AD240" s="6"/>
+      <c r="AE240" s="6"/>
+      <c r="AF240" s="6"/>
+      <c r="AG240" s="6"/>
+      <c r="AH240" s="6"/>
+      <c r="AI240" s="6"/>
+      <c r="AJ240" s="6"/>
+      <c r="AK240" s="6"/>
+      <c r="AL240" s="6"/>
+      <c r="AM240" s="6"/>
+      <c r="AN240" s="7"/>
+    </row>
+    <row r="241" spans="4:40" x14ac:dyDescent="0.4">
+      <c r="D241" s="5"/>
+      <c r="E241" s="6"/>
+      <c r="F241" s="6"/>
+      <c r="G241" s="6"/>
+      <c r="H241" s="6"/>
+      <c r="I241" s="6"/>
+      <c r="J241" s="6"/>
+      <c r="K241" s="6"/>
+      <c r="L241" s="6"/>
+      <c r="M241" s="6"/>
+      <c r="N241" s="6"/>
+      <c r="O241" s="6"/>
+      <c r="P241" s="6"/>
+      <c r="Q241" s="6"/>
+      <c r="R241" s="6"/>
+      <c r="S241" s="6"/>
+      <c r="T241" s="6"/>
+      <c r="U241" s="6"/>
+      <c r="V241" s="6"/>
+      <c r="W241" s="6"/>
+      <c r="X241" s="6"/>
+      <c r="Y241" s="6"/>
+      <c r="Z241" s="6"/>
+      <c r="AA241" s="6"/>
+      <c r="AB241" s="6"/>
+      <c r="AC241" s="6"/>
+      <c r="AD241" s="6"/>
+      <c r="AE241" s="6"/>
+      <c r="AF241" s="6"/>
+      <c r="AG241" s="6"/>
+      <c r="AH241" s="6"/>
+      <c r="AI241" s="6"/>
+      <c r="AJ241" s="6"/>
+      <c r="AK241" s="6"/>
+      <c r="AL241" s="6"/>
+      <c r="AM241" s="6"/>
+      <c r="AN241" s="7"/>
+    </row>
+    <row r="242" spans="4:40" x14ac:dyDescent="0.4">
+      <c r="D242" s="5"/>
+      <c r="E242" s="6"/>
+      <c r="F242" s="6"/>
+      <c r="G242" s="6"/>
+      <c r="H242" s="6"/>
+      <c r="I242" s="6"/>
+      <c r="J242" s="6"/>
+      <c r="K242" s="6"/>
+      <c r="L242" s="6"/>
+      <c r="M242" s="6"/>
+      <c r="N242" s="6"/>
+      <c r="O242" s="6"/>
+      <c r="P242" s="6"/>
+      <c r="Q242" s="6"/>
+      <c r="R242" s="6"/>
+      <c r="S242" s="6"/>
+      <c r="T242" s="6"/>
+      <c r="U242" s="6"/>
+      <c r="V242" s="6"/>
+      <c r="W242" s="6"/>
+      <c r="X242" s="6"/>
+      <c r="Y242" s="6"/>
+      <c r="Z242" s="6"/>
+      <c r="AA242" s="6"/>
+      <c r="AB242" s="6"/>
+      <c r="AC242" s="6"/>
+      <c r="AD242" s="6"/>
+      <c r="AE242" s="6"/>
+      <c r="AF242" s="6"/>
+      <c r="AG242" s="6"/>
+      <c r="AH242" s="6"/>
+      <c r="AI242" s="6"/>
+      <c r="AJ242" s="6"/>
+      <c r="AK242" s="6"/>
+      <c r="AL242" s="6"/>
+      <c r="AM242" s="6"/>
+      <c r="AN242" s="7"/>
+    </row>
+    <row r="243" spans="4:40" x14ac:dyDescent="0.4">
+      <c r="D243" s="5"/>
+      <c r="E243" s="6"/>
+      <c r="F243" s="6"/>
+      <c r="G243" s="6"/>
+      <c r="H243" s="6"/>
+      <c r="I243" s="6"/>
+      <c r="J243" s="6"/>
+      <c r="K243" s="6"/>
+      <c r="L243" s="6"/>
+      <c r="M243" s="6"/>
+      <c r="N243" s="6"/>
+      <c r="O243" s="6"/>
+      <c r="P243" s="6"/>
+      <c r="Q243" s="6"/>
+      <c r="R243" s="6"/>
+      <c r="S243" s="6"/>
+      <c r="T243" s="6"/>
+      <c r="U243" s="6"/>
+      <c r="V243" s="6"/>
+      <c r="W243" s="6"/>
+      <c r="X243" s="6"/>
+      <c r="Y243" s="6"/>
+      <c r="Z243" s="6"/>
+      <c r="AA243" s="6"/>
+      <c r="AB243" s="6"/>
+      <c r="AC243" s="6"/>
+      <c r="AD243" s="6"/>
+      <c r="AE243" s="6"/>
+      <c r="AF243" s="6"/>
+      <c r="AG243" s="6"/>
+      <c r="AH243" s="6"/>
+      <c r="AI243" s="6"/>
+      <c r="AJ243" s="6"/>
+      <c r="AK243" s="6"/>
+      <c r="AL243" s="6"/>
+      <c r="AM243" s="6"/>
+      <c r="AN243" s="7"/>
+    </row>
+    <row r="244" spans="4:40" x14ac:dyDescent="0.4">
+      <c r="D244" s="5"/>
+      <c r="E244" s="6"/>
+      <c r="F244" s="6"/>
+      <c r="G244" s="6"/>
+      <c r="H244" s="6"/>
+      <c r="I244" s="6"/>
+      <c r="J244" s="6"/>
+      <c r="K244" s="6"/>
+      <c r="L244" s="6"/>
+      <c r="M244" s="6"/>
+      <c r="N244" s="6"/>
+      <c r="O244" s="6"/>
+      <c r="P244" s="6"/>
+      <c r="Q244" s="6"/>
+      <c r="R244" s="6"/>
+      <c r="S244" s="6"/>
+      <c r="T244" s="6"/>
+      <c r="U244" s="6"/>
+      <c r="V244" s="6"/>
+      <c r="W244" s="6"/>
+      <c r="X244" s="6"/>
+      <c r="Y244" s="6"/>
+      <c r="Z244" s="6"/>
+      <c r="AA244" s="6"/>
+      <c r="AB244" s="6"/>
+      <c r="AC244" s="6"/>
+      <c r="AD244" s="6"/>
+      <c r="AE244" s="6"/>
+      <c r="AF244" s="6"/>
+      <c r="AG244" s="6"/>
+      <c r="AH244" s="6"/>
+      <c r="AI244" s="6"/>
+      <c r="AJ244" s="6"/>
+      <c r="AK244" s="6"/>
+      <c r="AL244" s="6"/>
+      <c r="AM244" s="6"/>
+      <c r="AN244" s="7"/>
+    </row>
+    <row r="245" spans="4:40" x14ac:dyDescent="0.4">
+      <c r="D245" s="5"/>
+      <c r="E245" s="6"/>
+      <c r="F245" s="6"/>
+      <c r="G245" s="6"/>
+      <c r="H245" s="6"/>
+      <c r="I245" s="6"/>
+      <c r="J245" s="6"/>
+      <c r="K245" s="6"/>
+      <c r="L245" s="6"/>
+      <c r="M245" s="6"/>
+      <c r="N245" s="6"/>
+      <c r="O245" s="6"/>
+      <c r="P245" s="6"/>
+      <c r="Q245" s="6"/>
+      <c r="R245" s="6"/>
+      <c r="S245" s="6"/>
+      <c r="T245" s="6"/>
+      <c r="U245" s="6"/>
+      <c r="V245" s="6"/>
+      <c r="W245" s="6"/>
+      <c r="X245" s="6"/>
+      <c r="Y245" s="6"/>
+      <c r="Z245" s="6"/>
+      <c r="AA245" s="6"/>
+      <c r="AB245" s="6"/>
+      <c r="AC245" s="6"/>
+      <c r="AD245" s="6"/>
+      <c r="AE245" s="6"/>
+      <c r="AF245" s="6"/>
+      <c r="AG245" s="6"/>
+      <c r="AH245" s="6"/>
+      <c r="AI245" s="6"/>
+      <c r="AJ245" s="6"/>
+      <c r="AK245" s="6"/>
+      <c r="AL245" s="6"/>
+      <c r="AM245" s="6"/>
+      <c r="AN245" s="7"/>
+    </row>
+    <row r="246" spans="4:40" x14ac:dyDescent="0.4">
+      <c r="D246" s="5"/>
+      <c r="E246" s="6"/>
+      <c r="F246" s="6"/>
+      <c r="G246" s="6"/>
+      <c r="H246" s="6"/>
+      <c r="I246" s="6"/>
+      <c r="J246" s="6"/>
+      <c r="K246" s="6"/>
+      <c r="L246" s="6"/>
+      <c r="M246" s="6"/>
+      <c r="N246" s="6"/>
+      <c r="O246" s="6"/>
+      <c r="P246" s="6"/>
+      <c r="Q246" s="6"/>
+      <c r="R246" s="6"/>
+      <c r="S246" s="6"/>
+      <c r="T246" s="6"/>
+      <c r="U246" s="6"/>
+      <c r="V246" s="6"/>
+      <c r="W246" s="6"/>
+      <c r="X246" s="6"/>
+      <c r="Y246" s="6"/>
+      <c r="Z246" s="6"/>
+      <c r="AA246" s="6"/>
+      <c r="AB246" s="6"/>
+      <c r="AC246" s="6"/>
+      <c r="AD246" s="6"/>
+      <c r="AE246" s="6"/>
+      <c r="AF246" s="6"/>
+      <c r="AG246" s="6"/>
+      <c r="AH246" s="6"/>
+      <c r="AI246" s="6"/>
+      <c r="AJ246" s="6"/>
+      <c r="AK246" s="6"/>
+      <c r="AL246" s="6"/>
+      <c r="AM246" s="6"/>
+      <c r="AN246" s="7"/>
+    </row>
+    <row r="247" spans="4:40" x14ac:dyDescent="0.4">
+      <c r="D247" s="5"/>
+      <c r="E247" s="6"/>
+      <c r="F247" s="6"/>
+      <c r="G247" s="6"/>
+      <c r="H247" s="6"/>
+      <c r="I247" s="6"/>
+      <c r="J247" s="6"/>
+      <c r="K247" s="6"/>
+      <c r="L247" s="6"/>
+      <c r="M247" s="6"/>
+      <c r="N247" s="6"/>
+      <c r="O247" s="6"/>
+      <c r="P247" s="6"/>
+      <c r="Q247" s="6"/>
+      <c r="R247" s="6"/>
+      <c r="S247" s="6"/>
+      <c r="T247" s="6"/>
+      <c r="U247" s="6"/>
+      <c r="V247" s="6"/>
+      <c r="W247" s="6"/>
+      <c r="X247" s="6"/>
+      <c r="Y247" s="6"/>
+      <c r="Z247" s="6"/>
+      <c r="AA247" s="6"/>
+      <c r="AB247" s="6"/>
+      <c r="AC247" s="6"/>
+      <c r="AD247" s="6"/>
+      <c r="AE247" s="6"/>
+      <c r="AF247" s="6"/>
+      <c r="AG247" s="6"/>
+      <c r="AH247" s="6"/>
+      <c r="AI247" s="6"/>
+      <c r="AJ247" s="6"/>
+      <c r="AK247" s="6"/>
+      <c r="AL247" s="6"/>
+      <c r="AM247" s="6"/>
+      <c r="AN247" s="7"/>
+    </row>
+    <row r="248" spans="4:40" x14ac:dyDescent="0.4">
+      <c r="D248" s="5"/>
+      <c r="E248" s="6"/>
+      <c r="F248" s="6"/>
+      <c r="G248" s="6"/>
+      <c r="H248" s="6"/>
+      <c r="I248" s="6"/>
+      <c r="J248" s="6"/>
+      <c r="K248" s="6"/>
+      <c r="L248" s="6"/>
+      <c r="M248" s="6"/>
+      <c r="N248" s="6"/>
+      <c r="O248" s="6"/>
+      <c r="P248" s="6"/>
+      <c r="Q248" s="6"/>
+      <c r="R248" s="6"/>
+      <c r="S248" s="6"/>
+      <c r="T248" s="6"/>
+      <c r="U248" s="6"/>
+      <c r="V248" s="6"/>
+      <c r="W248" s="6"/>
+      <c r="X248" s="6"/>
+      <c r="Y248" s="6"/>
+      <c r="Z248" s="6"/>
+      <c r="AA248" s="6"/>
+      <c r="AB248" s="6"/>
+      <c r="AC248" s="6"/>
+      <c r="AD248" s="6"/>
+      <c r="AE248" s="6"/>
+      <c r="AF248" s="6"/>
+      <c r="AG248" s="6"/>
+      <c r="AH248" s="6"/>
+      <c r="AI248" s="6"/>
+      <c r="AJ248" s="6"/>
+      <c r="AK248" s="6"/>
+      <c r="AL248" s="6"/>
+      <c r="AM248" s="6"/>
+      <c r="AN248" s="7"/>
+    </row>
+    <row r="249" spans="4:40" x14ac:dyDescent="0.4">
+      <c r="D249" s="9"/>
+      <c r="E249" s="10"/>
+      <c r="F249" s="10"/>
+      <c r="G249" s="10"/>
+      <c r="H249" s="10"/>
+      <c r="I249" s="10"/>
+      <c r="J249" s="10"/>
+      <c r="K249" s="10"/>
+      <c r="L249" s="10"/>
+      <c r="M249" s="10"/>
+      <c r="N249" s="10"/>
+      <c r="O249" s="10"/>
+      <c r="P249" s="10"/>
+      <c r="Q249" s="10"/>
+      <c r="R249" s="10"/>
+      <c r="S249" s="10"/>
+      <c r="T249" s="10"/>
+      <c r="U249" s="10"/>
+      <c r="V249" s="10"/>
+      <c r="W249" s="10"/>
+      <c r="X249" s="10"/>
+      <c r="Y249" s="10"/>
+      <c r="Z249" s="10"/>
+      <c r="AA249" s="10"/>
+      <c r="AB249" s="10"/>
+      <c r="AC249" s="10"/>
+      <c r="AD249" s="10"/>
+      <c r="AE249" s="10"/>
+      <c r="AF249" s="10"/>
+      <c r="AG249" s="10"/>
+      <c r="AH249" s="10"/>
+      <c r="AI249" s="10"/>
+      <c r="AJ249" s="10"/>
+      <c r="AK249" s="10"/>
+      <c r="AL249" s="10"/>
+      <c r="AM249" s="10"/>
+      <c r="AN249" s="11"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
